--- a/app/Archivos/Cursos.xlsx
+++ b/app/Archivos/Cursos.xlsx
@@ -1,23 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seba\Documents\Paralelas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Secciones" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Secciones" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Secciones!$A$1:$F$347</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Secciones!$A$1:$F$347</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -39,7 +30,7 @@
     <t>Apellido Docente</t>
   </si>
   <si>
-    <t>Bloques</t>
+    <t>Horas Pedagógicas</t>
   </si>
   <si>
     <t>INF79900</t>
@@ -2712,39 +2703,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2758,314 +2738,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.43"/>
+    <col customWidth="1" min="2" max="2" width="51.57"/>
+    <col customWidth="1" min="3" max="3" width="10.57"/>
+    <col customWidth="1" min="4" max="4" width="22.43"/>
+    <col customWidth="1" min="5" max="5" width="27.57"/>
+    <col customWidth="1" min="6" max="6" width="21.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>2153</v>
+        <v>2153.0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3102,10 +2820,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3113,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>2152</v>
+        <v>2152.0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -3122,10 +2840,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +2851,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>2994</v>
+        <v>2994.0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -3142,10 +2860,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3153,7 +2871,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>1588</v>
+        <v>1588.0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3162,10 +2880,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3173,7 +2891,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2">
-        <v>2506</v>
+        <v>2506.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -3182,10 +2900,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +2911,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>2499</v>
+        <v>2499.0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -3202,10 +2920,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3213,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2">
-        <v>2492</v>
+        <v>2492.0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
@@ -3222,10 +2940,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3233,7 +2951,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>1641</v>
+        <v>1641.0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -3242,10 +2960,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3253,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2">
-        <v>2498</v>
+        <v>2498.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -3262,10 +2980,10 @@
         <v>39</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3273,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>2493</v>
+        <v>2493.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -3282,10 +3000,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3293,7 +3011,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>2772</v>
+        <v>2772.0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
@@ -3302,10 +3020,10 @@
         <v>47</v>
       </c>
       <c r="F12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -3313,7 +3031,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="2">
-        <v>2863</v>
+        <v>2863.0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -3322,10 +3040,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3333,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>2068</v>
+        <v>2068.0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -3342,10 +3060,10 @@
         <v>54</v>
       </c>
       <c r="F14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -3353,7 +3071,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="2">
-        <v>2492</v>
+        <v>2492.0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -3362,10 +3080,10 @@
         <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -3373,7 +3091,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="2">
-        <v>2032</v>
+        <v>2032.0</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>59</v>
@@ -3382,10 +3100,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -3393,7 +3111,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="2">
-        <v>2165</v>
+        <v>2165.0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>63</v>
@@ -3402,10 +3120,10 @@
         <v>64</v>
       </c>
       <c r="F17" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3413,7 +3131,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="2">
-        <v>1623</v>
+        <v>1623.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>67</v>
@@ -3422,10 +3140,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -3433,7 +3151,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="2">
-        <v>1929</v>
+        <v>1929.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>71</v>
@@ -3442,10 +3160,10 @@
         <v>72</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -3453,7 +3171,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="2">
-        <v>1949</v>
+        <v>1949.0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>75</v>
@@ -3462,10 +3180,10 @@
         <v>76</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -3473,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>2032</v>
+        <v>2032.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>59</v>
@@ -3482,10 +3200,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -3493,7 +3211,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="2">
-        <v>2010</v>
+        <v>2010.0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>80</v>
@@ -3502,10 +3220,10 @@
         <v>81</v>
       </c>
       <c r="F22" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -3513,7 +3231,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="2">
-        <v>1643</v>
+        <v>1643.0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>84</v>
@@ -3522,10 +3240,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -3533,7 +3251,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="2">
-        <v>2034</v>
+        <v>2034.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>88</v>
@@ -3542,10 +3260,10 @@
         <v>89</v>
       </c>
       <c r="F24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3553,7 +3271,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="2">
-        <v>1715</v>
+        <v>1715.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>90</v>
@@ -3562,10 +3280,10 @@
         <v>91</v>
       </c>
       <c r="F25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -3573,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="2">
-        <v>2086</v>
+        <v>2086.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>94</v>
@@ -3582,10 +3300,10 @@
         <v>95</v>
       </c>
       <c r="F26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -3593,7 +3311,7 @@
         <v>97</v>
       </c>
       <c r="C27" s="2">
-        <v>1640</v>
+        <v>1640.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>98</v>
@@ -3602,10 +3320,10 @@
         <v>99</v>
       </c>
       <c r="F27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
@@ -3613,7 +3331,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="2">
-        <v>1709</v>
+        <v>1709.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>101</v>
@@ -3622,10 +3340,10 @@
         <v>102</v>
       </c>
       <c r="F28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -3633,7 +3351,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="2">
-        <v>1874</v>
+        <v>1874.0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>105</v>
@@ -3642,10 +3360,10 @@
         <v>106</v>
       </c>
       <c r="F29" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
@@ -3653,7 +3371,7 @@
         <v>108</v>
       </c>
       <c r="C30" s="2">
-        <v>1593</v>
+        <v>1593.0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>109</v>
@@ -3662,10 +3380,10 @@
         <v>110</v>
       </c>
       <c r="F30" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
@@ -3673,7 +3391,7 @@
         <v>112</v>
       </c>
       <c r="C31" s="2">
-        <v>1734</v>
+        <v>1734.0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>113</v>
@@ -3682,10 +3400,10 @@
         <v>114</v>
       </c>
       <c r="F31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>115</v>
       </c>
@@ -3693,7 +3411,7 @@
         <v>116</v>
       </c>
       <c r="C32" s="2">
-        <v>2759</v>
+        <v>2759.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>117</v>
@@ -3702,10 +3420,10 @@
         <v>118</v>
       </c>
       <c r="F32" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>115</v>
       </c>
@@ -3713,7 +3431,7 @@
         <v>116</v>
       </c>
       <c r="C33" s="2">
-        <v>2043</v>
+        <v>2043.0</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>119</v>
@@ -3722,10 +3440,10 @@
         <v>120</v>
       </c>
       <c r="F33" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>121</v>
       </c>
@@ -3733,7 +3451,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="2">
-        <v>1904</v>
+        <v>1904.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>123</v>
@@ -3742,10 +3460,10 @@
         <v>124</v>
       </c>
       <c r="F34" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
@@ -3753,7 +3471,7 @@
         <v>126</v>
       </c>
       <c r="C35" s="2">
-        <v>1582</v>
+        <v>1582.0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>127</v>
@@ -3762,10 +3480,10 @@
         <v>128</v>
       </c>
       <c r="F35" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>129</v>
       </c>
@@ -3773,7 +3491,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="2">
-        <v>1747</v>
+        <v>1747.0</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>88</v>
@@ -3782,10 +3500,10 @@
         <v>131</v>
       </c>
       <c r="F36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>132</v>
       </c>
@@ -3793,7 +3511,7 @@
         <v>133</v>
       </c>
       <c r="C37" s="2">
-        <v>2044</v>
+        <v>2044.0</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>134</v>
@@ -3802,10 +3520,10 @@
         <v>135</v>
       </c>
       <c r="F37" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>136</v>
       </c>
@@ -3813,7 +3531,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="2">
-        <v>1663</v>
+        <v>1663.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>138</v>
@@ -3822,10 +3540,10 @@
         <v>139</v>
       </c>
       <c r="F38" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>140</v>
       </c>
@@ -3833,7 +3551,7 @@
         <v>141</v>
       </c>
       <c r="C39" s="2">
-        <v>1549</v>
+        <v>1549.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>142</v>
@@ -3842,10 +3560,10 @@
         <v>143</v>
       </c>
       <c r="F39" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>144</v>
       </c>
@@ -3853,7 +3571,7 @@
         <v>145</v>
       </c>
       <c r="C40" s="2">
-        <v>1946</v>
+        <v>1946.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>146</v>
@@ -3862,10 +3580,10 @@
         <v>147</v>
       </c>
       <c r="F40" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>148</v>
       </c>
@@ -3873,7 +3591,7 @@
         <v>149</v>
       </c>
       <c r="C41" s="2">
-        <v>2035</v>
+        <v>2035.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>150</v>
@@ -3882,10 +3600,10 @@
         <v>151</v>
       </c>
       <c r="F41" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>152</v>
       </c>
@@ -3893,7 +3611,7 @@
         <v>153</v>
       </c>
       <c r="C42" s="2">
-        <v>1662</v>
+        <v>1662.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>154</v>
@@ -3902,10 +3620,10 @@
         <v>155</v>
       </c>
       <c r="F42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>156</v>
       </c>
@@ -3913,7 +3631,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="2">
-        <v>1825</v>
+        <v>1825.0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>158</v>
@@ -3922,10 +3640,10 @@
         <v>159</v>
       </c>
       <c r="F43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
@@ -3933,7 +3651,7 @@
         <v>161</v>
       </c>
       <c r="C44" s="2">
-        <v>2816</v>
+        <v>2816.0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>162</v>
@@ -3942,10 +3660,10 @@
         <v>163</v>
       </c>
       <c r="F44" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>164</v>
       </c>
@@ -3953,7 +3671,7 @@
         <v>165</v>
       </c>
       <c r="C45" s="2">
-        <v>1812</v>
+        <v>1812.0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>166</v>
@@ -3962,10 +3680,10 @@
         <v>167</v>
       </c>
       <c r="F45" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>168</v>
       </c>
@@ -3973,7 +3691,7 @@
         <v>169</v>
       </c>
       <c r="C46" s="2">
-        <v>2124</v>
+        <v>2124.0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>170</v>
@@ -3982,10 +3700,10 @@
         <v>171</v>
       </c>
       <c r="F46" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="2" t="s">
         <v>172</v>
       </c>
@@ -3993,7 +3711,7 @@
         <v>173</v>
       </c>
       <c r="C47" s="2">
-        <v>1797</v>
+        <v>1797.0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>174</v>
@@ -4002,10 +3720,10 @@
         <v>175</v>
       </c>
       <c r="F47" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -4013,7 +3731,7 @@
         <v>177</v>
       </c>
       <c r="C48" s="2">
-        <v>2027</v>
+        <v>2027.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>178</v>
@@ -4022,10 +3740,10 @@
         <v>179</v>
       </c>
       <c r="F48" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>176</v>
       </c>
@@ -4033,7 +3751,7 @@
         <v>177</v>
       </c>
       <c r="C49" s="2">
-        <v>1846</v>
+        <v>1846.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>180</v>
@@ -4042,10 +3760,10 @@
         <v>181</v>
       </c>
       <c r="F49" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>182</v>
       </c>
@@ -4053,7 +3771,7 @@
         <v>183</v>
       </c>
       <c r="C50" s="2">
-        <v>2031</v>
+        <v>2031.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>184</v>
@@ -4062,10 +3780,10 @@
         <v>185</v>
       </c>
       <c r="F50" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>186</v>
       </c>
@@ -4073,7 +3791,7 @@
         <v>187</v>
       </c>
       <c r="C51" s="2">
-        <v>2078</v>
+        <v>2078.0</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>188</v>
@@ -4082,10 +3800,10 @@
         <v>189</v>
       </c>
       <c r="F51" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="2" t="s">
         <v>186</v>
       </c>
@@ -4093,7 +3811,7 @@
         <v>187</v>
       </c>
       <c r="C52" s="2">
-        <v>2078</v>
+        <v>2078.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>188</v>
@@ -4102,10 +3820,10 @@
         <v>189</v>
       </c>
       <c r="F52" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="2" t="s">
         <v>190</v>
       </c>
@@ -4113,7 +3831,7 @@
         <v>191</v>
       </c>
       <c r="C53" s="2">
-        <v>1774</v>
+        <v>1774.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>192</v>
@@ -4122,10 +3840,10 @@
         <v>193</v>
       </c>
       <c r="F53" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="2" t="s">
         <v>194</v>
       </c>
@@ -4133,7 +3851,7 @@
         <v>195</v>
       </c>
       <c r="C54" s="2">
-        <v>2153</v>
+        <v>2153.0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
@@ -4142,10 +3860,10 @@
         <v>9</v>
       </c>
       <c r="F54" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -4153,7 +3871,7 @@
         <v>197</v>
       </c>
       <c r="C55" s="2">
-        <v>2153</v>
+        <v>2153.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
@@ -4162,10 +3880,10 @@
         <v>9</v>
       </c>
       <c r="F55" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="2" t="s">
         <v>198</v>
       </c>
@@ -4173,7 +3891,7 @@
         <v>199</v>
       </c>
       <c r="C56" s="2">
-        <v>1976</v>
+        <v>1976.0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>200</v>
@@ -4182,10 +3900,10 @@
         <v>201</v>
       </c>
       <c r="F56" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="2" t="s">
         <v>202</v>
       </c>
@@ -4193,7 +3911,7 @@
         <v>203</v>
       </c>
       <c r="C57" s="2">
-        <v>2990</v>
+        <v>2990.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>204</v>
@@ -4202,10 +3920,10 @@
         <v>205</v>
       </c>
       <c r="F57" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="2" t="s">
         <v>206</v>
       </c>
@@ -4213,7 +3931,7 @@
         <v>207</v>
       </c>
       <c r="C58" s="2">
-        <v>2154</v>
+        <v>2154.0</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>208</v>
@@ -4222,10 +3940,10 @@
         <v>209</v>
       </c>
       <c r="F58" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="2" t="s">
         <v>210</v>
       </c>
@@ -4233,7 +3951,7 @@
         <v>211</v>
       </c>
       <c r="C59" s="2">
-        <v>1896</v>
+        <v>1896.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>212</v>
@@ -4242,10 +3960,10 @@
         <v>213</v>
       </c>
       <c r="F59" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="2" t="s">
         <v>214</v>
       </c>
@@ -4253,7 +3971,7 @@
         <v>215</v>
       </c>
       <c r="C60" s="2">
-        <v>1723</v>
+        <v>1723.0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>216</v>
@@ -4262,10 +3980,10 @@
         <v>217</v>
       </c>
       <c r="F60" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="2" t="s">
         <v>218</v>
       </c>
@@ -4273,7 +3991,7 @@
         <v>219</v>
       </c>
       <c r="C61" s="2">
-        <v>1830</v>
+        <v>1830.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>220</v>
@@ -4282,10 +4000,10 @@
         <v>221</v>
       </c>
       <c r="F61" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="2" t="s">
         <v>222</v>
       </c>
@@ -4293,7 +4011,7 @@
         <v>223</v>
       </c>
       <c r="C62" s="2">
-        <v>1976</v>
+        <v>1976.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>200</v>
@@ -4302,10 +4020,10 @@
         <v>201</v>
       </c>
       <c r="F62" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="2" t="s">
         <v>224</v>
       </c>
@@ -4313,7 +4031,7 @@
         <v>225</v>
       </c>
       <c r="C63" s="2">
-        <v>1880</v>
+        <v>1880.0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>226</v>
@@ -4322,10 +4040,10 @@
         <v>227</v>
       </c>
       <c r="F63" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="2" t="s">
         <v>228</v>
       </c>
@@ -4333,7 +4051,7 @@
         <v>229</v>
       </c>
       <c r="C64" s="2">
-        <v>2107</v>
+        <v>2107.0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>230</v>
@@ -4342,10 +4060,10 @@
         <v>231</v>
       </c>
       <c r="F64" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="2" t="s">
         <v>232</v>
       </c>
@@ -4353,7 +4071,7 @@
         <v>233</v>
       </c>
       <c r="C65" s="2">
-        <v>1630</v>
+        <v>1630.0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>234</v>
@@ -4362,10 +4080,10 @@
         <v>235</v>
       </c>
       <c r="F65" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="2" t="s">
         <v>236</v>
       </c>
@@ -4373,7 +4091,7 @@
         <v>237</v>
       </c>
       <c r="C66" s="2">
-        <v>1633</v>
+        <v>1633.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>238</v>
@@ -4382,10 +4100,10 @@
         <v>239</v>
       </c>
       <c r="F66" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="2" t="s">
         <v>236</v>
       </c>
@@ -4393,7 +4111,7 @@
         <v>237</v>
       </c>
       <c r="C67" s="2">
-        <v>2847</v>
+        <v>2847.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>240</v>
@@ -4402,10 +4120,10 @@
         <v>241</v>
       </c>
       <c r="F67" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="2" t="s">
         <v>242</v>
       </c>
@@ -4413,7 +4131,7 @@
         <v>243</v>
       </c>
       <c r="C68" s="2">
-        <v>2039</v>
+        <v>2039.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>244</v>
@@ -4422,10 +4140,10 @@
         <v>245</v>
       </c>
       <c r="F68" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="2" t="s">
         <v>246</v>
       </c>
@@ -4433,7 +4151,7 @@
         <v>247</v>
       </c>
       <c r="C69" s="2">
-        <v>1678</v>
+        <v>1678.0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>248</v>
@@ -4442,10 +4160,10 @@
         <v>249</v>
       </c>
       <c r="F69" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="2" t="s">
         <v>250</v>
       </c>
@@ -4453,7 +4171,7 @@
         <v>251</v>
       </c>
       <c r="C70" s="2">
-        <v>2039</v>
+        <v>2039.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>244</v>
@@ -4462,10 +4180,10 @@
         <v>245</v>
       </c>
       <c r="F70" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="2" t="s">
         <v>252</v>
       </c>
@@ -4473,7 +4191,7 @@
         <v>253</v>
       </c>
       <c r="C71" s="2">
-        <v>1930</v>
+        <v>1930.0</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>254</v>
@@ -4482,10 +4200,10 @@
         <v>255</v>
       </c>
       <c r="F71" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="2" t="s">
         <v>256</v>
       </c>
@@ -4493,7 +4211,7 @@
         <v>257</v>
       </c>
       <c r="C72" s="2">
-        <v>1952</v>
+        <v>1952.0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>258</v>
@@ -4502,10 +4220,10 @@
         <v>259</v>
       </c>
       <c r="F72" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="2" t="s">
         <v>256</v>
       </c>
@@ -4513,7 +4231,7 @@
         <v>257</v>
       </c>
       <c r="C73" s="2">
-        <v>1619</v>
+        <v>1619.0</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>260</v>
@@ -4522,10 +4240,10 @@
         <v>261</v>
       </c>
       <c r="F73" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="2" t="s">
         <v>256</v>
       </c>
@@ -4533,7 +4251,7 @@
         <v>257</v>
       </c>
       <c r="C74" s="2">
-        <v>1870</v>
+        <v>1870.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>262</v>
@@ -4542,10 +4260,10 @@
         <v>263</v>
       </c>
       <c r="F74" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="2" t="s">
         <v>264</v>
       </c>
@@ -4553,7 +4271,7 @@
         <v>265</v>
       </c>
       <c r="C75" s="2">
-        <v>1921</v>
+        <v>1921.0</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>266</v>
@@ -4562,10 +4280,10 @@
         <v>267</v>
       </c>
       <c r="F75" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="2" t="s">
         <v>268</v>
       </c>
@@ -4573,7 +4291,7 @@
         <v>269</v>
       </c>
       <c r="C76" s="2">
-        <v>1676</v>
+        <v>1676.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>270</v>
@@ -4582,10 +4300,10 @@
         <v>271</v>
       </c>
       <c r="F76" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="2" t="s">
         <v>272</v>
       </c>
@@ -4593,7 +4311,7 @@
         <v>273</v>
       </c>
       <c r="C77" s="2">
-        <v>2039</v>
+        <v>2039.0</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>244</v>
@@ -4602,10 +4320,10 @@
         <v>245</v>
       </c>
       <c r="F77" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="2" t="s">
         <v>272</v>
       </c>
@@ -4613,7 +4331,7 @@
         <v>273</v>
       </c>
       <c r="C78" s="2">
-        <v>1948</v>
+        <v>1948.0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>274</v>
@@ -4622,10 +4340,10 @@
         <v>275</v>
       </c>
       <c r="F78" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="2" t="s">
         <v>276</v>
       </c>
@@ -4633,7 +4351,7 @@
         <v>277</v>
       </c>
       <c r="C79" s="2">
-        <v>1686</v>
+        <v>1686.0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>278</v>
@@ -4642,10 +4360,10 @@
         <v>279</v>
       </c>
       <c r="F79" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="2" t="s">
         <v>280</v>
       </c>
@@ -4653,7 +4371,7 @@
         <v>281</v>
       </c>
       <c r="C80" s="2">
-        <v>2766</v>
+        <v>2766.0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>282</v>
@@ -4662,10 +4380,10 @@
         <v>283</v>
       </c>
       <c r="F80" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="2" t="s">
         <v>280</v>
       </c>
@@ -4673,7 +4391,7 @@
         <v>281</v>
       </c>
       <c r="C81" s="2">
-        <v>2833</v>
+        <v>2833.0</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>284</v>
@@ -4682,10 +4400,10 @@
         <v>285</v>
       </c>
       <c r="F81" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="2" t="s">
         <v>280</v>
       </c>
@@ -4693,7 +4411,7 @@
         <v>281</v>
       </c>
       <c r="C82" s="2">
-        <v>1668</v>
+        <v>1668.0</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>286</v>
@@ -4702,10 +4420,10 @@
         <v>287</v>
       </c>
       <c r="F82" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2" t="s">
         <v>280</v>
       </c>
@@ -4713,7 +4431,7 @@
         <v>281</v>
       </c>
       <c r="C83" s="2">
-        <v>1936</v>
+        <v>1936.0</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>288</v>
@@ -4722,10 +4440,10 @@
         <v>289</v>
       </c>
       <c r="F83" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="2" t="s">
         <v>280</v>
       </c>
@@ -4733,7 +4451,7 @@
         <v>281</v>
       </c>
       <c r="C84" s="2">
-        <v>1916</v>
+        <v>1916.0</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>290</v>
@@ -4742,10 +4460,10 @@
         <v>291</v>
       </c>
       <c r="F84" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="2" t="s">
         <v>280</v>
       </c>
@@ -4753,7 +4471,7 @@
         <v>281</v>
       </c>
       <c r="C85" s="2">
-        <v>1992</v>
+        <v>1992.0</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>292</v>
@@ -4762,10 +4480,10 @@
         <v>293</v>
       </c>
       <c r="F85" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="2" t="s">
         <v>280</v>
       </c>
@@ -4773,7 +4491,7 @@
         <v>281</v>
       </c>
       <c r="C86" s="2">
-        <v>1564</v>
+        <v>1564.0</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>294</v>
@@ -4782,10 +4500,10 @@
         <v>295</v>
       </c>
       <c r="F86" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -4793,7 +4511,7 @@
         <v>297</v>
       </c>
       <c r="C87" s="2">
-        <v>1677</v>
+        <v>1677.0</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>298</v>
@@ -4802,10 +4520,10 @@
         <v>299</v>
       </c>
       <c r="F87" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
@@ -4813,7 +4531,7 @@
         <v>297</v>
       </c>
       <c r="C88" s="2">
-        <v>1716</v>
+        <v>1716.0</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>300</v>
@@ -4822,10 +4540,10 @@
         <v>301</v>
       </c>
       <c r="F88" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="2" t="s">
         <v>296</v>
       </c>
@@ -4833,7 +4551,7 @@
         <v>297</v>
       </c>
       <c r="C89" s="2">
-        <v>1576</v>
+        <v>1576.0</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>302</v>
@@ -4842,10 +4560,10 @@
         <v>303</v>
       </c>
       <c r="F89" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="2" t="s">
         <v>296</v>
       </c>
@@ -4853,7 +4571,7 @@
         <v>297</v>
       </c>
       <c r="C90" s="2">
-        <v>1579</v>
+        <v>1579.0</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>304</v>
@@ -4862,10 +4580,10 @@
         <v>305</v>
       </c>
       <c r="F90" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="2" t="s">
         <v>306</v>
       </c>
@@ -4873,7 +4591,7 @@
         <v>307</v>
       </c>
       <c r="C91" s="2">
-        <v>1564</v>
+        <v>1564.0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>294</v>
@@ -4882,10 +4600,10 @@
         <v>295</v>
       </c>
       <c r="F91" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="2" t="s">
         <v>306</v>
       </c>
@@ -4893,7 +4611,7 @@
         <v>307</v>
       </c>
       <c r="C92" s="2">
-        <v>1839</v>
+        <v>1839.0</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>208</v>
@@ -4902,10 +4620,10 @@
         <v>308</v>
       </c>
       <c r="F92" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="2" t="s">
         <v>306</v>
       </c>
@@ -4913,7 +4631,7 @@
         <v>307</v>
       </c>
       <c r="C93" s="2">
-        <v>1677</v>
+        <v>1677.0</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>298</v>
@@ -4922,10 +4640,10 @@
         <v>299</v>
       </c>
       <c r="F93" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="2" t="s">
         <v>309</v>
       </c>
@@ -4933,7 +4651,7 @@
         <v>297</v>
       </c>
       <c r="C94" s="2">
-        <v>1822</v>
+        <v>1822.0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>310</v>
@@ -4942,10 +4660,10 @@
         <v>311</v>
       </c>
       <c r="F94" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="2" t="s">
         <v>312</v>
       </c>
@@ -4953,7 +4671,7 @@
         <v>307</v>
       </c>
       <c r="C95" s="2">
-        <v>1681</v>
+        <v>1681.0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>313</v>
@@ -4962,10 +4680,10 @@
         <v>314</v>
       </c>
       <c r="F95" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="2" t="s">
         <v>315</v>
       </c>
@@ -4973,7 +4691,7 @@
         <v>316</v>
       </c>
       <c r="C96" s="2">
-        <v>1655</v>
+        <v>1655.0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>317</v>
@@ -4982,10 +4700,10 @@
         <v>318</v>
       </c>
       <c r="F96" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="2" t="s">
         <v>315</v>
       </c>
@@ -4993,7 +4711,7 @@
         <v>316</v>
       </c>
       <c r="C97" s="2">
-        <v>1677</v>
+        <v>1677.0</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>298</v>
@@ -5002,10 +4720,10 @@
         <v>299</v>
       </c>
       <c r="F97" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
@@ -5013,7 +4731,7 @@
         <v>320</v>
       </c>
       <c r="C98" s="2">
-        <v>1681</v>
+        <v>1681.0</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>313</v>
@@ -5022,10 +4740,10 @@
         <v>314</v>
       </c>
       <c r="F98" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="2" t="s">
         <v>319</v>
       </c>
@@ -5033,7 +4751,7 @@
         <v>320</v>
       </c>
       <c r="C99" s="2">
-        <v>2047</v>
+        <v>2047.0</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>321</v>
@@ -5042,10 +4760,10 @@
         <v>322</v>
       </c>
       <c r="F99" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="2" t="s">
         <v>319</v>
       </c>
@@ -5053,7 +4771,7 @@
         <v>320</v>
       </c>
       <c r="C100" s="2">
-        <v>1959</v>
+        <v>1959.0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>323</v>
@@ -5062,10 +4780,10 @@
         <v>324</v>
       </c>
       <c r="F100" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="2" t="s">
         <v>325</v>
       </c>
@@ -5073,7 +4791,7 @@
         <v>326</v>
       </c>
       <c r="C101" s="2">
-        <v>1822</v>
+        <v>1822.0</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>310</v>
@@ -5082,10 +4800,10 @@
         <v>311</v>
       </c>
       <c r="F101" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="2" t="s">
         <v>325</v>
       </c>
@@ -5093,7 +4811,7 @@
         <v>326</v>
       </c>
       <c r="C102" s="2">
-        <v>1686</v>
+        <v>1686.0</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>278</v>
@@ -5102,10 +4820,10 @@
         <v>279</v>
       </c>
       <c r="F102" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" s="2" t="s">
         <v>325</v>
       </c>
@@ -5113,7 +4831,7 @@
         <v>326</v>
       </c>
       <c r="C103" s="2">
-        <v>1668</v>
+        <v>1668.0</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>286</v>
@@ -5122,10 +4840,10 @@
         <v>287</v>
       </c>
       <c r="F103" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="2" t="s">
         <v>325</v>
       </c>
@@ -5133,7 +4851,7 @@
         <v>326</v>
       </c>
       <c r="C104" s="2">
-        <v>1839</v>
+        <v>1839.0</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>208</v>
@@ -5142,10 +4860,10 @@
         <v>308</v>
       </c>
       <c r="F104" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="2" t="s">
         <v>327</v>
       </c>
@@ -5153,7 +4871,7 @@
         <v>328</v>
       </c>
       <c r="C105" s="2">
-        <v>1924</v>
+        <v>1924.0</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>329</v>
@@ -5162,10 +4880,10 @@
         <v>330</v>
       </c>
       <c r="F105" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" s="2" t="s">
         <v>331</v>
       </c>
@@ -5173,7 +4891,7 @@
         <v>332</v>
       </c>
       <c r="C106" s="2">
-        <v>1961</v>
+        <v>1961.0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>333</v>
@@ -5182,10 +4900,10 @@
         <v>334</v>
       </c>
       <c r="F106" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="2" t="s">
         <v>335</v>
       </c>
@@ -5193,7 +4911,7 @@
         <v>336</v>
       </c>
       <c r="C107" s="2">
-        <v>1991</v>
+        <v>1991.0</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>337</v>
@@ -5202,10 +4920,10 @@
         <v>338</v>
       </c>
       <c r="F107" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="2" t="s">
         <v>339</v>
       </c>
@@ -5213,7 +4931,7 @@
         <v>340</v>
       </c>
       <c r="C108" s="2">
-        <v>1718</v>
+        <v>1718.0</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>341</v>
@@ -5222,10 +4940,10 @@
         <v>342</v>
       </c>
       <c r="F108" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
@@ -5233,7 +4951,7 @@
         <v>344</v>
       </c>
       <c r="C109" s="2">
-        <v>2041</v>
+        <v>2041.0</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>345</v>
@@ -5242,10 +4960,10 @@
         <v>346</v>
       </c>
       <c r="F109" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" s="2" t="s">
         <v>347</v>
       </c>
@@ -5253,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="2">
-        <v>1737</v>
+        <v>1737.0</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>348</v>
@@ -5262,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="F110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" s="2" t="s">
         <v>350</v>
       </c>
@@ -5273,7 +4991,7 @@
         <v>351</v>
       </c>
       <c r="C111" s="2">
-        <v>1673</v>
+        <v>1673.0</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>352</v>
@@ -5282,10 +5000,10 @@
         <v>353</v>
       </c>
       <c r="F111" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" s="2" t="s">
         <v>354</v>
       </c>
@@ -5293,7 +5011,7 @@
         <v>355</v>
       </c>
       <c r="C112" s="2">
-        <v>1673</v>
+        <v>1673.0</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>352</v>
@@ -5302,10 +5020,10 @@
         <v>353</v>
       </c>
       <c r="F112" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" s="2" t="s">
         <v>356</v>
       </c>
@@ -5313,7 +5031,7 @@
         <v>357</v>
       </c>
       <c r="C113" s="2">
-        <v>1638</v>
+        <v>1638.0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>358</v>
@@ -5322,10 +5040,10 @@
         <v>359</v>
       </c>
       <c r="F113" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" s="2" t="s">
         <v>360</v>
       </c>
@@ -5333,7 +5051,7 @@
         <v>361</v>
       </c>
       <c r="C114" s="2">
-        <v>1670</v>
+        <v>1670.0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>362</v>
@@ -5342,10 +5060,10 @@
         <v>363</v>
       </c>
       <c r="F114" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" s="2" t="s">
         <v>364</v>
       </c>
@@ -5353,7 +5071,7 @@
         <v>365</v>
       </c>
       <c r="C115" s="2">
-        <v>1561</v>
+        <v>1561.0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>366</v>
@@ -5362,10 +5080,10 @@
         <v>367</v>
       </c>
       <c r="F115" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="2" t="s">
         <v>368</v>
       </c>
@@ -5373,7 +5091,7 @@
         <v>369</v>
       </c>
       <c r="C116" s="2">
-        <v>1795</v>
+        <v>1795.0</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>370</v>
@@ -5382,10 +5100,10 @@
         <v>371</v>
       </c>
       <c r="F116" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="2" t="s">
         <v>372</v>
       </c>
@@ -5393,7 +5111,7 @@
         <v>373</v>
       </c>
       <c r="C117" s="2">
-        <v>1594</v>
+        <v>1594.0</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>374</v>
@@ -5402,10 +5120,10 @@
         <v>375</v>
       </c>
       <c r="F117" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" s="2" t="s">
         <v>372</v>
       </c>
@@ -5413,7 +5131,7 @@
         <v>373</v>
       </c>
       <c r="C118" s="2">
-        <v>1594</v>
+        <v>1594.0</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>374</v>
@@ -5422,10 +5140,10 @@
         <v>375</v>
       </c>
       <c r="F118" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="2" t="s">
         <v>376</v>
       </c>
@@ -5433,7 +5151,7 @@
         <v>377</v>
       </c>
       <c r="C119" s="2">
-        <v>1651</v>
+        <v>1651.0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>378</v>
@@ -5442,10 +5160,10 @@
         <v>379</v>
       </c>
       <c r="F119" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" s="2" t="s">
         <v>380</v>
       </c>
@@ -5453,7 +5171,7 @@
         <v>381</v>
       </c>
       <c r="C120" s="2">
-        <v>1881</v>
+        <v>1881.0</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>382</v>
@@ -5462,10 +5180,10 @@
         <v>383</v>
       </c>
       <c r="F120" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
@@ -5473,7 +5191,7 @@
         <v>385</v>
       </c>
       <c r="C121" s="2">
-        <v>1944</v>
+        <v>1944.0</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>386</v>
@@ -5482,10 +5200,10 @@
         <v>387</v>
       </c>
       <c r="F121" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" s="2" t="s">
         <v>388</v>
       </c>
@@ -5493,7 +5211,7 @@
         <v>389</v>
       </c>
       <c r="C122" s="2">
-        <v>1702</v>
+        <v>1702.0</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>390</v>
@@ -5502,10 +5220,10 @@
         <v>391</v>
       </c>
       <c r="F122" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" s="2" t="s">
         <v>388</v>
       </c>
@@ -5513,7 +5231,7 @@
         <v>389</v>
       </c>
       <c r="C123" s="2">
-        <v>2061</v>
+        <v>2061.0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>392</v>
@@ -5522,10 +5240,10 @@
         <v>393</v>
       </c>
       <c r="F123" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="2" t="s">
         <v>388</v>
       </c>
@@ -5533,7 +5251,7 @@
         <v>389</v>
       </c>
       <c r="C124" s="2">
-        <v>1879</v>
+        <v>1879.0</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>46</v>
@@ -5542,10 +5260,10 @@
         <v>394</v>
       </c>
       <c r="F124" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="2" t="s">
         <v>395</v>
       </c>
@@ -5553,7 +5271,7 @@
         <v>385</v>
       </c>
       <c r="C125" s="2">
-        <v>1958</v>
+        <v>1958.0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>396</v>
@@ -5562,10 +5280,10 @@
         <v>397</v>
       </c>
       <c r="F125" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="2" t="s">
         <v>395</v>
       </c>
@@ -5573,7 +5291,7 @@
         <v>385</v>
       </c>
       <c r="C126" s="2">
-        <v>2061</v>
+        <v>2061.0</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>392</v>
@@ -5582,10 +5300,10 @@
         <v>393</v>
       </c>
       <c r="F126" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="2" t="s">
         <v>395</v>
       </c>
@@ -5593,7 +5311,7 @@
         <v>385</v>
       </c>
       <c r="C127" s="2">
-        <v>1702</v>
+        <v>1702.0</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>390</v>
@@ -5602,10 +5320,10 @@
         <v>391</v>
       </c>
       <c r="F127" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="2" t="s">
         <v>398</v>
       </c>
@@ -5613,7 +5331,7 @@
         <v>385</v>
       </c>
       <c r="C128" s="2">
-        <v>1944</v>
+        <v>1944.0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>386</v>
@@ -5622,10 +5340,10 @@
         <v>387</v>
       </c>
       <c r="F128" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="2" t="s">
         <v>399</v>
       </c>
@@ -5633,7 +5351,7 @@
         <v>400</v>
       </c>
       <c r="C129" s="2">
-        <v>1960</v>
+        <v>1960.0</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>401</v>
@@ -5642,10 +5360,10 @@
         <v>402</v>
       </c>
       <c r="F129" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="2" t="s">
         <v>403</v>
       </c>
@@ -5653,7 +5371,7 @@
         <v>389</v>
       </c>
       <c r="C130" s="2">
-        <v>1711</v>
+        <v>1711.0</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>404</v>
@@ -5662,10 +5380,10 @@
         <v>405</v>
       </c>
       <c r="F130" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="2" t="s">
         <v>406</v>
       </c>
@@ -5673,7 +5391,7 @@
         <v>381</v>
       </c>
       <c r="C131" s="2">
-        <v>1957</v>
+        <v>1957.0</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>46</v>
@@ -5682,10 +5400,10 @@
         <v>407</v>
       </c>
       <c r="F131" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="2" t="s">
         <v>408</v>
       </c>
@@ -5693,7 +5411,7 @@
         <v>409</v>
       </c>
       <c r="C132" s="2">
-        <v>2992</v>
+        <v>2992.0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>410</v>
@@ -5702,10 +5420,10 @@
         <v>411</v>
       </c>
       <c r="F132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="2" t="s">
         <v>412</v>
       </c>
@@ -5713,7 +5431,7 @@
         <v>413</v>
       </c>
       <c r="C133" s="2">
-        <v>1897</v>
+        <v>1897.0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>414</v>
@@ -5722,10 +5440,10 @@
         <v>415</v>
       </c>
       <c r="F133" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="2" t="s">
         <v>416</v>
       </c>
@@ -5733,7 +5451,7 @@
         <v>417</v>
       </c>
       <c r="C134" s="2">
-        <v>1953</v>
+        <v>1953.0</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>418</v>
@@ -5742,10 +5460,10 @@
         <v>419</v>
       </c>
       <c r="F134" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" s="2" t="s">
         <v>420</v>
       </c>
@@ -5753,7 +5471,7 @@
         <v>417</v>
       </c>
       <c r="C135" s="2">
-        <v>1723</v>
+        <v>1723.0</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>216</v>
@@ -5762,10 +5480,10 @@
         <v>217</v>
       </c>
       <c r="F135" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="2" t="s">
         <v>421</v>
       </c>
@@ -5773,7 +5491,7 @@
         <v>413</v>
       </c>
       <c r="C136" s="2">
-        <v>2989</v>
+        <v>2989.0</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>422</v>
@@ -5782,10 +5500,10 @@
         <v>423</v>
       </c>
       <c r="F136" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" s="2" t="s">
         <v>424</v>
       </c>
@@ -5793,7 +5511,7 @@
         <v>425</v>
       </c>
       <c r="C137" s="2">
-        <v>1752</v>
+        <v>1752.0</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>426</v>
@@ -5802,10 +5520,10 @@
         <v>427</v>
       </c>
       <c r="F137" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="2" t="s">
         <v>428</v>
       </c>
@@ -5813,7 +5531,7 @@
         <v>429</v>
       </c>
       <c r="C138" s="2">
-        <v>1706</v>
+        <v>1706.0</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>366</v>
@@ -5822,10 +5540,10 @@
         <v>430</v>
       </c>
       <c r="F138" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="2" t="s">
         <v>431</v>
       </c>
@@ -5833,7 +5551,7 @@
         <v>432</v>
       </c>
       <c r="C139" s="2">
-        <v>1860</v>
+        <v>1860.0</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>178</v>
@@ -5842,10 +5560,10 @@
         <v>433</v>
       </c>
       <c r="F139" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" s="2" t="s">
         <v>434</v>
       </c>
@@ -5853,7 +5571,7 @@
         <v>435</v>
       </c>
       <c r="C140" s="2">
-        <v>1897</v>
+        <v>1897.0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>414</v>
@@ -5862,10 +5580,10 @@
         <v>415</v>
       </c>
       <c r="F140" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" s="2" t="s">
         <v>434</v>
       </c>
@@ -5873,7 +5591,7 @@
         <v>435</v>
       </c>
       <c r="C141" s="2">
-        <v>1937</v>
+        <v>1937.0</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>436</v>
@@ -5882,10 +5600,10 @@
         <v>437</v>
       </c>
       <c r="F141" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" s="2" t="s">
         <v>438</v>
       </c>
@@ -5893,7 +5611,7 @@
         <v>435</v>
       </c>
       <c r="C142" s="2">
-        <v>1897</v>
+        <v>1897.0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>414</v>
@@ -5902,10 +5620,10 @@
         <v>415</v>
       </c>
       <c r="F142" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" s="2" t="s">
         <v>439</v>
       </c>
@@ -5913,7 +5631,7 @@
         <v>440</v>
       </c>
       <c r="C143" s="2">
-        <v>1890</v>
+        <v>1890.0</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>441</v>
@@ -5922,10 +5640,10 @@
         <v>442</v>
       </c>
       <c r="F143" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" s="2" t="s">
         <v>443</v>
       </c>
@@ -5933,7 +5651,7 @@
         <v>444</v>
       </c>
       <c r="C144" s="2">
-        <v>2168</v>
+        <v>2168.0</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>445</v>
@@ -5942,10 +5660,10 @@
         <v>446</v>
       </c>
       <c r="F144" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" s="2" t="s">
         <v>447</v>
       </c>
@@ -5953,7 +5671,7 @@
         <v>49</v>
       </c>
       <c r="C145" s="2">
-        <v>2038</v>
+        <v>2038.0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>448</v>
@@ -5962,10 +5680,10 @@
         <v>449</v>
       </c>
       <c r="F145" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" s="2" t="s">
         <v>447</v>
       </c>
@@ -5973,7 +5691,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="2">
-        <v>1709</v>
+        <v>1709.0</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>101</v>
@@ -5982,10 +5700,10 @@
         <v>102</v>
       </c>
       <c r="F146" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
@@ -5993,7 +5711,7 @@
         <v>49</v>
       </c>
       <c r="C147" s="2">
-        <v>2038</v>
+        <v>2038.0</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>448</v>
@@ -6002,10 +5720,10 @@
         <v>449</v>
       </c>
       <c r="F147" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" s="2" t="s">
         <v>447</v>
       </c>
@@ -6013,7 +5731,7 @@
         <v>49</v>
       </c>
       <c r="C148" s="2">
-        <v>1709</v>
+        <v>1709.0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>101</v>
@@ -6022,10 +5740,10 @@
         <v>102</v>
       </c>
       <c r="F148" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149" s="2" t="s">
         <v>447</v>
       </c>
@@ -6033,7 +5751,7 @@
         <v>49</v>
       </c>
       <c r="C149" s="2">
-        <v>2038</v>
+        <v>2038.0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>448</v>
@@ -6042,10 +5760,10 @@
         <v>449</v>
       </c>
       <c r="F149" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
@@ -6053,7 +5771,7 @@
         <v>451</v>
       </c>
       <c r="C150" s="2">
-        <v>2861</v>
+        <v>2861.0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>452</v>
@@ -6062,10 +5780,10 @@
         <v>453</v>
       </c>
       <c r="F150" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" s="2" t="s">
         <v>450</v>
       </c>
@@ -6073,7 +5791,7 @@
         <v>451</v>
       </c>
       <c r="C151" s="2">
-        <v>2861</v>
+        <v>2861.0</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>452</v>
@@ -6082,10 +5800,10 @@
         <v>453</v>
       </c>
       <c r="F151" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" s="2" t="s">
         <v>454</v>
       </c>
@@ -6093,7 +5811,7 @@
         <v>455</v>
       </c>
       <c r="C152" s="2">
-        <v>2862</v>
+        <v>2862.0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>456</v>
@@ -6102,10 +5820,10 @@
         <v>457</v>
       </c>
       <c r="F152" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" s="2" t="s">
         <v>458</v>
       </c>
@@ -6113,7 +5831,7 @@
         <v>459</v>
       </c>
       <c r="C153" s="2">
-        <v>2157</v>
+        <v>2157.0</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>460</v>
@@ -6122,10 +5840,10 @@
         <v>461</v>
       </c>
       <c r="F153" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" s="2" t="s">
         <v>462</v>
       </c>
@@ -6133,7 +5851,7 @@
         <v>440</v>
       </c>
       <c r="C154" s="2">
-        <v>1890</v>
+        <v>1890.0</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>441</v>
@@ -6142,10 +5860,10 @@
         <v>442</v>
       </c>
       <c r="F154" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" s="2" t="s">
         <v>463</v>
       </c>
@@ -6153,7 +5871,7 @@
         <v>413</v>
       </c>
       <c r="C155" s="2">
-        <v>2989</v>
+        <v>2989.0</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>422</v>
@@ -6162,10 +5880,10 @@
         <v>423</v>
       </c>
       <c r="F155" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" s="2" t="s">
         <v>464</v>
       </c>
@@ -6173,7 +5891,7 @@
         <v>465</v>
       </c>
       <c r="C156" s="2">
-        <v>1653</v>
+        <v>1653.0</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>466</v>
@@ -6182,10 +5900,10 @@
         <v>467</v>
       </c>
       <c r="F156" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" s="2" t="s">
         <v>464</v>
       </c>
@@ -6193,7 +5911,7 @@
         <v>465</v>
       </c>
       <c r="C157" s="2">
-        <v>1607</v>
+        <v>1607.0</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>468</v>
@@ -6202,10 +5920,10 @@
         <v>469</v>
       </c>
       <c r="F157" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" s="2" t="s">
         <v>470</v>
       </c>
@@ -6213,7 +5931,7 @@
         <v>444</v>
       </c>
       <c r="C158" s="2">
-        <v>1844</v>
+        <v>1844.0</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>471</v>
@@ -6222,10 +5940,10 @@
         <v>472</v>
       </c>
       <c r="F158" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" s="2" t="s">
         <v>473</v>
       </c>
@@ -6233,7 +5951,7 @@
         <v>451</v>
       </c>
       <c r="C159" s="2">
-        <v>1714</v>
+        <v>1714.0</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>474</v>
@@ -6242,10 +5960,10 @@
         <v>475</v>
       </c>
       <c r="F159" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" s="2" t="s">
         <v>473</v>
       </c>
@@ -6253,7 +5971,7 @@
         <v>451</v>
       </c>
       <c r="C160" s="2">
-        <v>1963</v>
+        <v>1963.0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>476</v>
@@ -6262,10 +5980,10 @@
         <v>477</v>
       </c>
       <c r="F160" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" s="2" t="s">
         <v>478</v>
       </c>
@@ -6273,7 +5991,7 @@
         <v>432</v>
       </c>
       <c r="C161" s="2">
-        <v>2169</v>
+        <v>2169.0</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>479</v>
@@ -6282,10 +6000,10 @@
         <v>480</v>
       </c>
       <c r="F161" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" s="2" t="s">
         <v>478</v>
       </c>
@@ -6293,7 +6011,7 @@
         <v>432</v>
       </c>
       <c r="C162" s="2">
-        <v>1606</v>
+        <v>1606.0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>59</v>
@@ -6302,10 +6020,10 @@
         <v>481</v>
       </c>
       <c r="F162" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" s="2" t="s">
         <v>482</v>
       </c>
@@ -6313,7 +6031,7 @@
         <v>483</v>
       </c>
       <c r="C163" s="2">
-        <v>1962</v>
+        <v>1962.0</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>484</v>
@@ -6322,10 +6040,10 @@
         <v>485</v>
       </c>
       <c r="F163" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" s="2" t="s">
         <v>486</v>
       </c>
@@ -6333,7 +6051,7 @@
         <v>487</v>
       </c>
       <c r="C164" s="2">
-        <v>1606</v>
+        <v>1606.0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>59</v>
@@ -6342,10 +6060,10 @@
         <v>481</v>
       </c>
       <c r="F164" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" s="2" t="s">
         <v>488</v>
       </c>
@@ -6353,7 +6071,7 @@
         <v>489</v>
       </c>
       <c r="C165" s="2">
-        <v>2838</v>
+        <v>2838.0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>490</v>
@@ -6362,10 +6080,10 @@
         <v>491</v>
       </c>
       <c r="F165" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166" s="2" t="s">
         <v>492</v>
       </c>
@@ -6373,7 +6091,7 @@
         <v>493</v>
       </c>
       <c r="C166" s="2">
-        <v>1990</v>
+        <v>1990.0</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>494</v>
@@ -6382,10 +6100,10 @@
         <v>495</v>
       </c>
       <c r="F166" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" s="2" t="s">
         <v>496</v>
       </c>
@@ -6393,7 +6111,7 @@
         <v>497</v>
       </c>
       <c r="C167" s="2">
-        <v>1890</v>
+        <v>1890.0</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>441</v>
@@ -6402,10 +6120,10 @@
         <v>442</v>
       </c>
       <c r="F167" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="2" t="s">
         <v>498</v>
       </c>
@@ -6413,7 +6131,7 @@
         <v>499</v>
       </c>
       <c r="C168" s="2">
-        <v>2838</v>
+        <v>2838.0</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>490</v>
@@ -6422,10 +6140,10 @@
         <v>491</v>
       </c>
       <c r="F168" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="2" t="s">
         <v>500</v>
       </c>
@@ -6433,7 +6151,7 @@
         <v>501</v>
       </c>
       <c r="C169" s="2">
-        <v>1572</v>
+        <v>1572.0</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>502</v>
@@ -6442,10 +6160,10 @@
         <v>503</v>
       </c>
       <c r="F169" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" s="2" t="s">
         <v>504</v>
       </c>
@@ -6453,7 +6171,7 @@
         <v>425</v>
       </c>
       <c r="C170" s="2">
-        <v>1748</v>
+        <v>1748.0</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>362</v>
@@ -6462,10 +6180,10 @@
         <v>505</v>
       </c>
       <c r="F170" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" s="2" t="s">
         <v>506</v>
       </c>
@@ -6473,7 +6191,7 @@
         <v>507</v>
       </c>
       <c r="C171" s="2">
-        <v>2790</v>
+        <v>2790.0</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>508</v>
@@ -6482,10 +6200,10 @@
         <v>509</v>
       </c>
       <c r="F171" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" s="2" t="s">
         <v>506</v>
       </c>
@@ -6493,7 +6211,7 @@
         <v>507</v>
       </c>
       <c r="C172" s="2">
-        <v>2790</v>
+        <v>2790.0</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>508</v>
@@ -6502,10 +6220,10 @@
         <v>509</v>
       </c>
       <c r="F172" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173" s="2" t="s">
         <v>510</v>
       </c>
@@ -6513,7 +6231,7 @@
         <v>511</v>
       </c>
       <c r="C173" s="2">
-        <v>2860</v>
+        <v>2860.0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>512</v>
@@ -6522,10 +6240,10 @@
         <v>513</v>
       </c>
       <c r="F173" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" s="2" t="s">
         <v>514</v>
       </c>
@@ -6533,7 +6251,7 @@
         <v>459</v>
       </c>
       <c r="C174" s="2">
-        <v>1544</v>
+        <v>1544.0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>515</v>
@@ -6542,10 +6260,10 @@
         <v>516</v>
       </c>
       <c r="F174" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" s="2" t="s">
         <v>517</v>
       </c>
@@ -6553,7 +6271,7 @@
         <v>518</v>
       </c>
       <c r="C175" s="2">
-        <v>1547</v>
+        <v>1547.0</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>519</v>
@@ -6562,10 +6280,10 @@
         <v>520</v>
       </c>
       <c r="F175" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" s="2" t="s">
         <v>521</v>
       </c>
@@ -6573,7 +6291,7 @@
         <v>522</v>
       </c>
       <c r="C176" s="2">
-        <v>1621</v>
+        <v>1621.0</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>523</v>
@@ -6582,10 +6300,10 @@
         <v>524</v>
       </c>
       <c r="F176" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" s="2" t="s">
         <v>525</v>
       </c>
@@ -6593,7 +6311,7 @@
         <v>526</v>
       </c>
       <c r="C177" s="2">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>527</v>
@@ -6602,10 +6320,10 @@
         <v>528</v>
       </c>
       <c r="F177" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" s="2" t="s">
         <v>529</v>
       </c>
@@ -6613,7 +6331,7 @@
         <v>530</v>
       </c>
       <c r="C178" s="2">
-        <v>1567</v>
+        <v>1567.0</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>531</v>
@@ -6622,10 +6340,10 @@
         <v>532</v>
       </c>
       <c r="F178" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179" s="2" t="s">
         <v>533</v>
       </c>
@@ -6633,7 +6351,7 @@
         <v>534</v>
       </c>
       <c r="C179" s="2">
-        <v>1748</v>
+        <v>1748.0</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>362</v>
@@ -6642,10 +6360,10 @@
         <v>505</v>
       </c>
       <c r="F179" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180" s="2" t="s">
         <v>535</v>
       </c>
@@ -6653,7 +6371,7 @@
         <v>536</v>
       </c>
       <c r="C180" s="2">
-        <v>1690</v>
+        <v>1690.0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>537</v>
@@ -6662,10 +6380,10 @@
         <v>538</v>
       </c>
       <c r="F180" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181" s="2" t="s">
         <v>539</v>
       </c>
@@ -6673,7 +6391,7 @@
         <v>540</v>
       </c>
       <c r="C181" s="2">
-        <v>1963</v>
+        <v>1963.0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>476</v>
@@ -6682,10 +6400,10 @@
         <v>477</v>
       </c>
       <c r="F181" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" s="2" t="s">
         <v>541</v>
       </c>
@@ -6693,7 +6411,7 @@
         <v>542</v>
       </c>
       <c r="C182" s="2">
-        <v>1652</v>
+        <v>1652.0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>543</v>
@@ -6702,10 +6420,10 @@
         <v>544</v>
       </c>
       <c r="F182" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" s="2" t="s">
         <v>545</v>
       </c>
@@ -6713,7 +6431,7 @@
         <v>546</v>
       </c>
       <c r="C183" s="2">
-        <v>1559</v>
+        <v>1559.0</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>547</v>
@@ -6722,10 +6440,10 @@
         <v>548</v>
       </c>
       <c r="F183" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" s="2" t="s">
         <v>549</v>
       </c>
@@ -6733,7 +6451,7 @@
         <v>13</v>
       </c>
       <c r="C184" s="2">
-        <v>1544</v>
+        <v>1544.0</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>515</v>
@@ -6742,10 +6460,10 @@
         <v>516</v>
       </c>
       <c r="F184" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" s="2" t="s">
         <v>550</v>
       </c>
@@ -6753,7 +6471,7 @@
         <v>7</v>
       </c>
       <c r="C185" s="2">
-        <v>1922</v>
+        <v>1922.0</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>551</v>
@@ -6762,10 +6480,10 @@
         <v>552</v>
       </c>
       <c r="F185" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" s="2" t="s">
         <v>553</v>
       </c>
@@ -6773,7 +6491,7 @@
         <v>554</v>
       </c>
       <c r="C186" s="2">
-        <v>2986</v>
+        <v>2986.0</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>555</v>
@@ -6782,10 +6500,10 @@
         <v>556</v>
       </c>
       <c r="F186" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187" s="2" t="s">
         <v>553</v>
       </c>
@@ -6793,7 +6511,7 @@
         <v>554</v>
       </c>
       <c r="C187" s="2">
-        <v>2995</v>
+        <v>2995.0</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>557</v>
@@ -6802,10 +6520,10 @@
         <v>558</v>
       </c>
       <c r="F187" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" s="2" t="s">
         <v>553</v>
       </c>
@@ -6813,7 +6531,7 @@
         <v>554</v>
       </c>
       <c r="C188" s="2">
-        <v>2865</v>
+        <v>2865.0</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>559</v>
@@ -6822,10 +6540,10 @@
         <v>560</v>
       </c>
       <c r="F188" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="189">
       <c r="A189" s="2" t="s">
         <v>553</v>
       </c>
@@ -6833,7 +6551,7 @@
         <v>554</v>
       </c>
       <c r="C189" s="2">
-        <v>1885</v>
+        <v>1885.0</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>561</v>
@@ -6842,10 +6560,10 @@
         <v>562</v>
       </c>
       <c r="F189" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" s="2" t="s">
         <v>563</v>
       </c>
@@ -6853,7 +6571,7 @@
         <v>564</v>
       </c>
       <c r="C190" s="2">
-        <v>2155</v>
+        <v>2155.0</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>565</v>
@@ -6862,10 +6580,10 @@
         <v>566</v>
       </c>
       <c r="F190" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191" s="2" t="s">
         <v>567</v>
       </c>
@@ -6873,7 +6591,7 @@
         <v>568</v>
       </c>
       <c r="C191" s="2">
-        <v>2991</v>
+        <v>2991.0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>569</v>
@@ -6882,10 +6600,10 @@
         <v>570</v>
       </c>
       <c r="F191" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="192">
       <c r="A192" s="2" t="s">
         <v>567</v>
       </c>
@@ -6893,7 +6611,7 @@
         <v>568</v>
       </c>
       <c r="C192" s="2">
-        <v>2152</v>
+        <v>2152.0</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>10</v>
@@ -6902,10 +6620,10 @@
         <v>11</v>
       </c>
       <c r="F192" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="193">
       <c r="A193" s="2" t="s">
         <v>571</v>
       </c>
@@ -6913,7 +6631,7 @@
         <v>572</v>
       </c>
       <c r="C193" s="2">
-        <v>2157</v>
+        <v>2157.0</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>460</v>
@@ -6922,10 +6640,10 @@
         <v>461</v>
       </c>
       <c r="F193" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="194">
       <c r="A194" s="2" t="s">
         <v>571</v>
       </c>
@@ -6933,7 +6651,7 @@
         <v>572</v>
       </c>
       <c r="C194" s="2">
-        <v>2991</v>
+        <v>2991.0</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>569</v>
@@ -6942,10 +6660,10 @@
         <v>570</v>
       </c>
       <c r="F194" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="195">
       <c r="A195" s="2" t="s">
         <v>571</v>
       </c>
@@ -6953,7 +6671,7 @@
         <v>572</v>
       </c>
       <c r="C195" s="2">
-        <v>1762</v>
+        <v>1762.0</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>573</v>
@@ -6962,10 +6680,10 @@
         <v>574</v>
       </c>
       <c r="F195" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="196">
       <c r="A196" s="2" t="s">
         <v>575</v>
       </c>
@@ -6973,7 +6691,7 @@
         <v>576</v>
       </c>
       <c r="C196" s="2">
-        <v>2152</v>
+        <v>2152.0</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>10</v>
@@ -6982,10 +6700,10 @@
         <v>11</v>
       </c>
       <c r="F196" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="197">
       <c r="A197" s="2" t="s">
         <v>577</v>
       </c>
@@ -6993,7 +6711,7 @@
         <v>578</v>
       </c>
       <c r="C197" s="2">
-        <v>1892</v>
+        <v>1892.0</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>579</v>
@@ -7002,10 +6720,10 @@
         <v>580</v>
       </c>
       <c r="F197" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="198">
       <c r="A198" s="2" t="s">
         <v>581</v>
       </c>
@@ -7013,7 +6731,7 @@
         <v>582</v>
       </c>
       <c r="C198" s="2">
-        <v>1883</v>
+        <v>1883.0</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>212</v>
@@ -7022,10 +6740,10 @@
         <v>583</v>
       </c>
       <c r="F198" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="199">
       <c r="A199" s="2" t="s">
         <v>584</v>
       </c>
@@ -7033,7 +6751,7 @@
         <v>585</v>
       </c>
       <c r="C199" s="2">
-        <v>1973</v>
+        <v>1973.0</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>586</v>
@@ -7042,10 +6760,10 @@
         <v>587</v>
       </c>
       <c r="F199" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="200">
       <c r="A200" s="2" t="s">
         <v>588</v>
       </c>
@@ -7053,7 +6771,7 @@
         <v>589</v>
       </c>
       <c r="C200" s="2">
-        <v>2986</v>
+        <v>2986.0</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>555</v>
@@ -7062,10 +6780,10 @@
         <v>556</v>
       </c>
       <c r="F200" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="201">
       <c r="A201" s="2" t="s">
         <v>590</v>
       </c>
@@ -7073,7 +6791,7 @@
         <v>591</v>
       </c>
       <c r="C201" s="2">
-        <v>2162</v>
+        <v>2162.0</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>592</v>
@@ -7082,10 +6800,10 @@
         <v>593</v>
       </c>
       <c r="F201" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="202">
       <c r="A202" s="2" t="s">
         <v>594</v>
       </c>
@@ -7093,7 +6811,7 @@
         <v>595</v>
       </c>
       <c r="C202" s="2">
-        <v>1972</v>
+        <v>1972.0</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>596</v>
@@ -7102,10 +6820,10 @@
         <v>597</v>
       </c>
       <c r="F202" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="203">
       <c r="A203" s="2" t="s">
         <v>598</v>
       </c>
@@ -7113,7 +6831,7 @@
         <v>599</v>
       </c>
       <c r="C203" s="2">
-        <v>2990</v>
+        <v>2990.0</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>204</v>
@@ -7122,10 +6840,10 @@
         <v>205</v>
       </c>
       <c r="F203" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="204">
       <c r="A204" s="2" t="s">
         <v>600</v>
       </c>
@@ -7133,7 +6851,7 @@
         <v>601</v>
       </c>
       <c r="C204" s="2">
-        <v>1973</v>
+        <v>1973.0</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>586</v>
@@ -7142,10 +6860,10 @@
         <v>587</v>
       </c>
       <c r="F204" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="205">
       <c r="A205" s="2" t="s">
         <v>602</v>
       </c>
@@ -7153,7 +6871,7 @@
         <v>603</v>
       </c>
       <c r="C205" s="2">
-        <v>2984</v>
+        <v>2984.0</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>604</v>
@@ -7162,10 +6880,10 @@
         <v>605</v>
       </c>
       <c r="F205" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="206">
       <c r="A206" s="2" t="s">
         <v>606</v>
       </c>
@@ -7173,7 +6891,7 @@
         <v>607</v>
       </c>
       <c r="C206" s="2">
-        <v>1906</v>
+        <v>1906.0</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>178</v>
@@ -7182,10 +6900,10 @@
         <v>608</v>
       </c>
       <c r="F206" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="207">
       <c r="A207" s="2" t="s">
         <v>609</v>
       </c>
@@ -7193,7 +6911,7 @@
         <v>610</v>
       </c>
       <c r="C207" s="2">
-        <v>1906</v>
+        <v>1906.0</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>178</v>
@@ -7202,10 +6920,10 @@
         <v>608</v>
       </c>
       <c r="F207" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="208">
       <c r="A208" s="2" t="s">
         <v>611</v>
       </c>
@@ -7213,7 +6931,7 @@
         <v>612</v>
       </c>
       <c r="C208" s="2">
-        <v>2170</v>
+        <v>2170.0</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>613</v>
@@ -7222,10 +6940,10 @@
         <v>614</v>
       </c>
       <c r="F208" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="209">
       <c r="A209" s="2" t="s">
         <v>615</v>
       </c>
@@ -7233,7 +6951,7 @@
         <v>616</v>
       </c>
       <c r="C209" s="2">
-        <v>2154</v>
+        <v>2154.0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>208</v>
@@ -7242,10 +6960,10 @@
         <v>209</v>
       </c>
       <c r="F209" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="210">
       <c r="A210" s="2" t="s">
         <v>617</v>
       </c>
@@ -7253,7 +6971,7 @@
         <v>618</v>
       </c>
       <c r="C210" s="2">
-        <v>2987</v>
+        <v>2987.0</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>619</v>
@@ -7262,10 +6980,10 @@
         <v>620</v>
       </c>
       <c r="F210" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="211">
       <c r="A211" s="2" t="s">
         <v>621</v>
       </c>
@@ -7273,7 +6991,7 @@
         <v>622</v>
       </c>
       <c r="C211" s="2">
-        <v>1806</v>
+        <v>1806.0</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>623</v>
@@ -7282,10 +7000,10 @@
         <v>624</v>
       </c>
       <c r="F211" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="212">
       <c r="A212" s="2" t="s">
         <v>625</v>
       </c>
@@ -7293,7 +7011,7 @@
         <v>626</v>
       </c>
       <c r="C212" s="2">
-        <v>2158</v>
+        <v>2158.0</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>627</v>
@@ -7302,10 +7020,10 @@
         <v>628</v>
       </c>
       <c r="F212" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="213">
       <c r="A213" s="2" t="s">
         <v>629</v>
       </c>
@@ -7313,7 +7031,7 @@
         <v>630</v>
       </c>
       <c r="C213" s="2">
-        <v>2992</v>
+        <v>2992.0</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>410</v>
@@ -7322,10 +7040,10 @@
         <v>411</v>
       </c>
       <c r="F213" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="214">
       <c r="A214" s="2" t="s">
         <v>631</v>
       </c>
@@ -7333,7 +7051,7 @@
         <v>632</v>
       </c>
       <c r="C214" s="2">
-        <v>2162</v>
+        <v>2162.0</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>592</v>
@@ -7342,10 +7060,10 @@
         <v>593</v>
       </c>
       <c r="F214" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="215">
       <c r="A215" s="2" t="s">
         <v>633</v>
       </c>
@@ -7353,7 +7071,7 @@
         <v>591</v>
       </c>
       <c r="C215" s="2">
-        <v>1972</v>
+        <v>1972.0</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>596</v>
@@ -7362,10 +7080,10 @@
         <v>597</v>
       </c>
       <c r="F215" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="216">
       <c r="A216" s="2" t="s">
         <v>634</v>
       </c>
@@ -7373,7 +7091,7 @@
         <v>635</v>
       </c>
       <c r="C216" s="2">
-        <v>2992</v>
+        <v>2992.0</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>410</v>
@@ -7382,10 +7100,10 @@
         <v>411</v>
       </c>
       <c r="F216" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="217">
       <c r="A217" s="2" t="s">
         <v>636</v>
       </c>
@@ -7393,7 +7111,7 @@
         <v>637</v>
       </c>
       <c r="C217" s="2">
-        <v>1762</v>
+        <v>1762.0</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>573</v>
@@ -7402,10 +7120,10 @@
         <v>574</v>
       </c>
       <c r="F217" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="218">
       <c r="A218" s="2" t="s">
         <v>638</v>
       </c>
@@ -7413,7 +7131,7 @@
         <v>572</v>
       </c>
       <c r="C218" s="2">
-        <v>2843</v>
+        <v>2843.0</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>639</v>
@@ -7422,10 +7140,10 @@
         <v>640</v>
       </c>
       <c r="F218" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="219">
       <c r="A219" s="2" t="s">
         <v>641</v>
       </c>
@@ -7433,7 +7151,7 @@
         <v>578</v>
       </c>
       <c r="C219" s="2">
-        <v>1906</v>
+        <v>1906.0</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>178</v>
@@ -7442,10 +7160,10 @@
         <v>608</v>
       </c>
       <c r="F219" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="220">
       <c r="A220" s="2" t="s">
         <v>642</v>
       </c>
@@ -7453,7 +7171,7 @@
         <v>589</v>
       </c>
       <c r="C220" s="2">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>527</v>
@@ -7462,10 +7180,10 @@
         <v>528</v>
       </c>
       <c r="F220" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="221">
       <c r="A221" s="2" t="s">
         <v>643</v>
       </c>
@@ -7473,7 +7191,7 @@
         <v>599</v>
       </c>
       <c r="C221" s="2">
-        <v>2985</v>
+        <v>2985.0</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>644</v>
@@ -7482,10 +7200,10 @@
         <v>645</v>
       </c>
       <c r="F221" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="222">
       <c r="A222" s="2" t="s">
         <v>646</v>
       </c>
@@ -7493,7 +7211,7 @@
         <v>607</v>
       </c>
       <c r="C222" s="2">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>527</v>
@@ -7502,10 +7220,10 @@
         <v>528</v>
       </c>
       <c r="F222" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="223">
       <c r="A223" s="2" t="s">
         <v>647</v>
       </c>
@@ -7513,7 +7231,7 @@
         <v>648</v>
       </c>
       <c r="C223" s="2">
-        <v>2993</v>
+        <v>2993.0</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>649</v>
@@ -7522,10 +7240,10 @@
         <v>650</v>
       </c>
       <c r="F223" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="224">
       <c r="A224" s="2" t="s">
         <v>651</v>
       </c>
@@ -7533,7 +7251,7 @@
         <v>652</v>
       </c>
       <c r="C224" s="2">
-        <v>2993</v>
+        <v>2993.0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>649</v>
@@ -7542,10 +7260,10 @@
         <v>650</v>
       </c>
       <c r="F224" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="225">
       <c r="A225" s="2" t="s">
         <v>653</v>
       </c>
@@ -7553,7 +7271,7 @@
         <v>603</v>
       </c>
       <c r="C225" s="2">
-        <v>2984</v>
+        <v>2984.0</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>604</v>
@@ -7562,10 +7280,10 @@
         <v>605</v>
       </c>
       <c r="F225" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="226">
       <c r="A226" s="2" t="s">
         <v>654</v>
       </c>
@@ -7573,7 +7291,7 @@
         <v>595</v>
       </c>
       <c r="C226" s="2">
-        <v>2985</v>
+        <v>2985.0</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>644</v>
@@ -7582,10 +7300,10 @@
         <v>645</v>
       </c>
       <c r="F226" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="227">
       <c r="A227" s="2" t="s">
         <v>655</v>
       </c>
@@ -7593,7 +7311,7 @@
         <v>622</v>
       </c>
       <c r="C227" s="2">
-        <v>2987</v>
+        <v>2987.0</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>619</v>
@@ -7602,10 +7320,10 @@
         <v>620</v>
       </c>
       <c r="F227" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="228">
       <c r="A228" s="2" t="s">
         <v>656</v>
       </c>
@@ -7613,7 +7331,7 @@
         <v>657</v>
       </c>
       <c r="C228" s="2">
-        <v>2162</v>
+        <v>2162.0</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>592</v>
@@ -7622,10 +7340,10 @@
         <v>593</v>
       </c>
       <c r="F228" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="229">
       <c r="A229" s="2" t="s">
         <v>658</v>
       </c>
@@ -7633,7 +7351,7 @@
         <v>659</v>
       </c>
       <c r="C229" s="2">
-        <v>2995</v>
+        <v>2995.0</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>557</v>
@@ -7642,10 +7360,10 @@
         <v>558</v>
       </c>
       <c r="F229" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="230">
       <c r="A230" s="2" t="s">
         <v>660</v>
       </c>
@@ -7653,7 +7371,7 @@
         <v>661</v>
       </c>
       <c r="C230" s="2">
-        <v>2153</v>
+        <v>2153.0</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>8</v>
@@ -7662,10 +7380,10 @@
         <v>9</v>
       </c>
       <c r="F230" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="231">
       <c r="A231" s="2" t="s">
         <v>662</v>
       </c>
@@ -7673,7 +7391,7 @@
         <v>663</v>
       </c>
       <c r="C231" s="2">
-        <v>2160</v>
+        <v>2160.0</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>664</v>
@@ -7682,10 +7400,10 @@
         <v>665</v>
       </c>
       <c r="F231" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="232">
       <c r="A232" s="2" t="s">
         <v>666</v>
       </c>
@@ -7693,7 +7411,7 @@
         <v>13</v>
       </c>
       <c r="C232" s="2">
-        <v>2986</v>
+        <v>2986.0</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>555</v>
@@ -7702,10 +7420,10 @@
         <v>556</v>
       </c>
       <c r="F232" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
       <c r="A233" s="2" t="s">
         <v>666</v>
       </c>
@@ -7713,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="C233" s="2">
-        <v>2987</v>
+        <v>2987.0</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>619</v>
@@ -7722,10 +7440,10 @@
         <v>620</v>
       </c>
       <c r="F233" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
       <c r="A234" s="2" t="s">
         <v>667</v>
       </c>
@@ -7733,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="C234" s="2">
-        <v>2986</v>
+        <v>2986.0</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>555</v>
@@ -7742,10 +7460,10 @@
         <v>556</v>
       </c>
       <c r="F234" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235">
       <c r="A235" s="2" t="s">
         <v>667</v>
       </c>
@@ -7753,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="C235" s="2">
-        <v>2987</v>
+        <v>2987.0</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>619</v>
@@ -7762,10 +7480,10 @@
         <v>620</v>
       </c>
       <c r="F235" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
       <c r="A236" s="2" t="s">
         <v>668</v>
       </c>
@@ -7773,7 +7491,7 @@
         <v>669</v>
       </c>
       <c r="C236" s="2">
-        <v>2994</v>
+        <v>2994.0</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>14</v>
@@ -7782,10 +7500,10 @@
         <v>15</v>
       </c>
       <c r="F236" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="237">
       <c r="A237" s="2" t="s">
         <v>670</v>
       </c>
@@ -7793,7 +7511,7 @@
         <v>618</v>
       </c>
       <c r="C237" s="2">
-        <v>2159</v>
+        <v>2159.0</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>671</v>
@@ -7802,10 +7520,10 @@
         <v>672</v>
       </c>
       <c r="F237" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="238">
       <c r="A238" s="2" t="s">
         <v>673</v>
       </c>
@@ -7813,7 +7531,7 @@
         <v>674</v>
       </c>
       <c r="C238" s="2">
-        <v>2158</v>
+        <v>2158.0</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>627</v>
@@ -7822,10 +7540,10 @@
         <v>628</v>
       </c>
       <c r="F238" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="239">
       <c r="A239" s="2" t="s">
         <v>675</v>
       </c>
@@ -7833,7 +7551,7 @@
         <v>676</v>
       </c>
       <c r="C239" s="2">
-        <v>2994</v>
+        <v>2994.0</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>14</v>
@@ -7842,10 +7560,10 @@
         <v>15</v>
       </c>
       <c r="F239" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="240">
       <c r="A240" s="2" t="s">
         <v>677</v>
       </c>
@@ -7853,7 +7571,7 @@
         <v>678</v>
       </c>
       <c r="C240" s="2">
-        <v>2158</v>
+        <v>2158.0</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>627</v>
@@ -7862,10 +7580,10 @@
         <v>628</v>
       </c>
       <c r="F240" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="241">
       <c r="A241" s="2" t="s">
         <v>679</v>
       </c>
@@ -7873,7 +7591,7 @@
         <v>680</v>
       </c>
       <c r="C241" s="2">
-        <v>2024</v>
+        <v>2024.0</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>248</v>
@@ -7882,10 +7600,10 @@
         <v>681</v>
       </c>
       <c r="F241" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="242">
       <c r="A242" s="2" t="s">
         <v>682</v>
       </c>
@@ -7893,7 +7611,7 @@
         <v>683</v>
       </c>
       <c r="C242" s="2">
-        <v>2154</v>
+        <v>2154.0</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>208</v>
@@ -7902,10 +7620,10 @@
         <v>209</v>
       </c>
       <c r="F242" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="243">
       <c r="A243" s="2" t="s">
         <v>12</v>
       </c>
@@ -7913,7 +7631,7 @@
         <v>13</v>
       </c>
       <c r="C243" s="2">
-        <v>2152</v>
+        <v>2152.0</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>10</v>
@@ -7922,10 +7640,10 @@
         <v>11</v>
       </c>
       <c r="F243" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
       <c r="A244" s="2" t="s">
         <v>12</v>
       </c>
@@ -7933,7 +7651,7 @@
         <v>13</v>
       </c>
       <c r="C244" s="2">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>527</v>
@@ -7942,10 +7660,10 @@
         <v>528</v>
       </c>
       <c r="F244" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
       <c r="A245" s="2" t="s">
         <v>12</v>
       </c>
@@ -7953,7 +7671,7 @@
         <v>13</v>
       </c>
       <c r="C245" s="2">
-        <v>2990</v>
+        <v>2990.0</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>204</v>
@@ -7962,10 +7680,10 @@
         <v>205</v>
       </c>
       <c r="F245" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
@@ -7973,7 +7691,7 @@
         <v>13</v>
       </c>
       <c r="C246" s="2">
-        <v>2991</v>
+        <v>2991.0</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>569</v>
@@ -7982,10 +7700,10 @@
         <v>570</v>
       </c>
       <c r="F246" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
       <c r="A247" s="2" t="s">
         <v>12</v>
       </c>
@@ -7993,7 +7711,7 @@
         <v>13</v>
       </c>
       <c r="C247" s="2">
-        <v>2153</v>
+        <v>2153.0</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>8</v>
@@ -8002,10 +7720,10 @@
         <v>9</v>
       </c>
       <c r="F247" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
       <c r="A248" s="2" t="s">
         <v>6</v>
       </c>
@@ -8013,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="C248" s="2">
-        <v>2990</v>
+        <v>2990.0</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>204</v>
@@ -8022,10 +7740,10 @@
         <v>205</v>
       </c>
       <c r="F248" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
       <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
@@ -8033,7 +7751,7 @@
         <v>7</v>
       </c>
       <c r="C249" s="2">
-        <v>2991</v>
+        <v>2991.0</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>569</v>
@@ -8042,10 +7760,10 @@
         <v>570</v>
       </c>
       <c r="F249" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
       <c r="A250" s="2" t="s">
         <v>6</v>
       </c>
@@ -8053,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="C250" s="2">
-        <v>2987</v>
+        <v>2987.0</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>619</v>
@@ -8062,10 +7780,10 @@
         <v>620</v>
       </c>
       <c r="F250" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
       <c r="A251" s="2" t="s">
         <v>6</v>
       </c>
@@ -8073,7 +7791,7 @@
         <v>7</v>
       </c>
       <c r="C251" s="2">
-        <v>2986</v>
+        <v>2986.0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>555</v>
@@ -8082,10 +7800,10 @@
         <v>556</v>
       </c>
       <c r="F251" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
       <c r="A252" s="2" t="s">
         <v>6</v>
       </c>
@@ -8093,7 +7811,7 @@
         <v>7</v>
       </c>
       <c r="C252" s="2">
-        <v>2994</v>
+        <v>2994.0</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>14</v>
@@ -8102,10 +7820,10 @@
         <v>15</v>
       </c>
       <c r="F252" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
       <c r="A253" s="2" t="s">
         <v>6</v>
       </c>
@@ -8113,7 +7831,7 @@
         <v>7</v>
       </c>
       <c r="C253" s="2">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>527</v>
@@ -8122,10 +7840,10 @@
         <v>528</v>
       </c>
       <c r="F253" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
       <c r="A254" s="2" t="s">
         <v>684</v>
       </c>
@@ -8133,7 +7851,7 @@
         <v>685</v>
       </c>
       <c r="C254" s="2">
-        <v>2992</v>
+        <v>2992.0</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>410</v>
@@ -8142,10 +7860,10 @@
         <v>411</v>
       </c>
       <c r="F254" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="255">
       <c r="A255" s="2" t="s">
         <v>686</v>
       </c>
@@ -8153,7 +7871,7 @@
         <v>687</v>
       </c>
       <c r="C255" s="2">
-        <v>1793</v>
+        <v>1793.0</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>688</v>
@@ -8162,10 +7880,10 @@
         <v>689</v>
       </c>
       <c r="F255" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="256">
       <c r="A256" s="2" t="s">
         <v>690</v>
       </c>
@@ -8173,7 +7891,7 @@
         <v>691</v>
       </c>
       <c r="C256" s="2">
-        <v>1669</v>
+        <v>1669.0</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>692</v>
@@ -8182,10 +7900,10 @@
         <v>693</v>
       </c>
       <c r="F256" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="257">
       <c r="A257" s="2" t="s">
         <v>694</v>
       </c>
@@ -8193,7 +7911,7 @@
         <v>695</v>
       </c>
       <c r="C257" s="2">
-        <v>2852</v>
+        <v>2852.0</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>696</v>
@@ -8202,10 +7920,10 @@
         <v>697</v>
       </c>
       <c r="F257" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="258">
       <c r="A258" s="2" t="s">
         <v>698</v>
       </c>
@@ -8213,7 +7931,7 @@
         <v>699</v>
       </c>
       <c r="C258" s="2">
-        <v>2119</v>
+        <v>2119.0</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>700</v>
@@ -8222,10 +7940,10 @@
         <v>701</v>
       </c>
       <c r="F258" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="259">
       <c r="A259" s="2" t="s">
         <v>702</v>
       </c>
@@ -8233,7 +7951,7 @@
         <v>351</v>
       </c>
       <c r="C259" s="2">
-        <v>2009</v>
+        <v>2009.0</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>703</v>
@@ -8242,10 +7960,10 @@
         <v>704</v>
       </c>
       <c r="F259" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="260">
       <c r="A260" s="2" t="s">
         <v>705</v>
       </c>
@@ -8253,7 +7971,7 @@
         <v>706</v>
       </c>
       <c r="C260" s="2">
-        <v>2000</v>
+        <v>2000.0</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>707</v>
@@ -8262,10 +7980,10 @@
         <v>708</v>
       </c>
       <c r="F260" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="261">
       <c r="A261" s="2" t="s">
         <v>709</v>
       </c>
@@ -8273,7 +7991,7 @@
         <v>710</v>
       </c>
       <c r="C261" s="2">
-        <v>2091</v>
+        <v>2091.0</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>711</v>
@@ -8282,10 +8000,10 @@
         <v>712</v>
       </c>
       <c r="F261" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="262">
       <c r="A262" s="2" t="s">
         <v>713</v>
       </c>
@@ -8293,7 +8011,7 @@
         <v>714</v>
       </c>
       <c r="C262" s="2">
-        <v>1560</v>
+        <v>1560.0</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>715</v>
@@ -8302,10 +8020,10 @@
         <v>716</v>
       </c>
       <c r="F262" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="263">
       <c r="A263" s="2" t="s">
         <v>717</v>
       </c>
@@ -8313,7 +8031,7 @@
         <v>718</v>
       </c>
       <c r="C263" s="2">
-        <v>1849</v>
+        <v>1849.0</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>248</v>
@@ -8322,10 +8040,10 @@
         <v>719</v>
       </c>
       <c r="F263" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="264">
       <c r="A264" s="2" t="s">
         <v>720</v>
       </c>
@@ -8333,7 +8051,7 @@
         <v>721</v>
       </c>
       <c r="C264" s="2">
-        <v>1894</v>
+        <v>1894.0</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>722</v>
@@ -8342,10 +8060,10 @@
         <v>723</v>
       </c>
       <c r="F264" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="265">
       <c r="A265" s="2" t="s">
         <v>724</v>
       </c>
@@ -8353,7 +8071,7 @@
         <v>725</v>
       </c>
       <c r="C265" s="2">
-        <v>1926</v>
+        <v>1926.0</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>726</v>
@@ -8362,10 +8080,10 @@
         <v>727</v>
       </c>
       <c r="F265" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="266">
       <c r="A266" s="2" t="s">
         <v>728</v>
       </c>
@@ -8373,7 +8091,7 @@
         <v>729</v>
       </c>
       <c r="C266" s="2">
-        <v>1720</v>
+        <v>1720.0</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>730</v>
@@ -8382,10 +8100,10 @@
         <v>731</v>
       </c>
       <c r="F266" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="267">
       <c r="A267" s="2" t="s">
         <v>732</v>
       </c>
@@ -8393,7 +8111,7 @@
         <v>733</v>
       </c>
       <c r="C267" s="2">
-        <v>1913</v>
+        <v>1913.0</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>734</v>
@@ -8402,10 +8120,10 @@
         <v>735</v>
       </c>
       <c r="F267" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="268">
       <c r="A268" s="2" t="s">
         <v>732</v>
       </c>
@@ -8413,7 +8131,7 @@
         <v>733</v>
       </c>
       <c r="C268" s="2">
-        <v>1710</v>
+        <v>1710.0</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>736</v>
@@ -8422,10 +8140,10 @@
         <v>737</v>
       </c>
       <c r="F268" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="269">
       <c r="A269" s="2" t="s">
         <v>732</v>
       </c>
@@ -8433,7 +8151,7 @@
         <v>733</v>
       </c>
       <c r="C269" s="2">
-        <v>1899</v>
+        <v>1899.0</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>738</v>
@@ -8442,10 +8160,10 @@
         <v>739</v>
       </c>
       <c r="F269" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="270">
       <c r="A270" s="2" t="s">
         <v>732</v>
       </c>
@@ -8453,7 +8171,7 @@
         <v>733</v>
       </c>
       <c r="C270" s="2">
-        <v>1758</v>
+        <v>1758.0</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>740</v>
@@ -8462,10 +8180,10 @@
         <v>741</v>
       </c>
       <c r="F270" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="271">
       <c r="A271" s="2" t="s">
         <v>732</v>
       </c>
@@ -8473,7 +8191,7 @@
         <v>733</v>
       </c>
       <c r="C271" s="2">
-        <v>1605</v>
+        <v>1605.0</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>742</v>
@@ -8482,10 +8200,10 @@
         <v>743</v>
       </c>
       <c r="F271" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="272">
       <c r="A272" s="2" t="s">
         <v>744</v>
       </c>
@@ -8493,7 +8211,7 @@
         <v>745</v>
       </c>
       <c r="C272" s="2">
-        <v>1600</v>
+        <v>1600.0</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>746</v>
@@ -8502,10 +8220,10 @@
         <v>747</v>
       </c>
       <c r="F272" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="273">
       <c r="A273" s="2" t="s">
         <v>744</v>
       </c>
@@ -8513,7 +8231,7 @@
         <v>745</v>
       </c>
       <c r="C273" s="2">
-        <v>1770</v>
+        <v>1770.0</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>748</v>
@@ -8522,10 +8240,10 @@
         <v>749</v>
       </c>
       <c r="F273" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="274">
       <c r="A274" s="2" t="s">
         <v>744</v>
       </c>
@@ -8533,7 +8251,7 @@
         <v>745</v>
       </c>
       <c r="C274" s="2">
-        <v>1600</v>
+        <v>1600.0</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>746</v>
@@ -8542,10 +8260,10 @@
         <v>747</v>
       </c>
       <c r="F274" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="275">
       <c r="A275" s="2" t="s">
         <v>744</v>
       </c>
@@ -8553,7 +8271,7 @@
         <v>745</v>
       </c>
       <c r="C275" s="2">
-        <v>1705</v>
+        <v>1705.0</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>750</v>
@@ -8562,10 +8280,10 @@
         <v>751</v>
       </c>
       <c r="F275" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="276">
       <c r="A276" s="2" t="s">
         <v>752</v>
       </c>
@@ -8573,7 +8291,7 @@
         <v>753</v>
       </c>
       <c r="C276" s="2">
-        <v>2151</v>
+        <v>2151.0</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>754</v>
@@ -8582,10 +8300,10 @@
         <v>755</v>
       </c>
       <c r="F276" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="277">
       <c r="A277" s="2" t="s">
         <v>752</v>
       </c>
@@ -8593,7 +8311,7 @@
         <v>753</v>
       </c>
       <c r="C277" s="2">
-        <v>2763</v>
+        <v>2763.0</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>756</v>
@@ -8602,10 +8320,10 @@
         <v>757</v>
       </c>
       <c r="F277" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="278">
       <c r="A278" s="2" t="s">
         <v>752</v>
       </c>
@@ -8613,7 +8331,7 @@
         <v>753</v>
       </c>
       <c r="C278" s="2">
-        <v>1596</v>
+        <v>1596.0</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>758</v>
@@ -8622,10 +8340,10 @@
         <v>759</v>
       </c>
       <c r="F278" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="279">
       <c r="A279" s="2" t="s">
         <v>752</v>
       </c>
@@ -8633,7 +8351,7 @@
         <v>753</v>
       </c>
       <c r="C279" s="2">
-        <v>1930</v>
+        <v>1930.0</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>254</v>
@@ -8642,10 +8360,10 @@
         <v>255</v>
       </c>
       <c r="F279" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="280">
       <c r="A280" s="2" t="s">
         <v>752</v>
       </c>
@@ -8653,7 +8371,7 @@
         <v>753</v>
       </c>
       <c r="C280" s="2">
-        <v>2763</v>
+        <v>2763.0</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>756</v>
@@ -8662,10 +8380,10 @@
         <v>757</v>
       </c>
       <c r="F280" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="281">
       <c r="A281" s="2" t="s">
         <v>752</v>
       </c>
@@ -8673,7 +8391,7 @@
         <v>753</v>
       </c>
       <c r="C281" s="2">
-        <v>1596</v>
+        <v>1596.0</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>758</v>
@@ -8682,10 +8400,10 @@
         <v>759</v>
       </c>
       <c r="F281" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="282">
       <c r="A282" s="2" t="s">
         <v>760</v>
       </c>
@@ -8693,7 +8411,7 @@
         <v>761</v>
       </c>
       <c r="C282" s="2">
-        <v>1603</v>
+        <v>1603.0</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>762</v>
@@ -8702,10 +8420,10 @@
         <v>763</v>
       </c>
       <c r="F282" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="283">
       <c r="A283" s="2" t="s">
         <v>760</v>
       </c>
@@ -8713,7 +8431,7 @@
         <v>761</v>
       </c>
       <c r="C283" s="2">
-        <v>1705</v>
+        <v>1705.0</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>750</v>
@@ -8722,10 +8440,10 @@
         <v>751</v>
       </c>
       <c r="F283" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="284">
       <c r="A284" s="2" t="s">
         <v>760</v>
       </c>
@@ -8733,7 +8451,7 @@
         <v>761</v>
       </c>
       <c r="C284" s="2">
-        <v>2129</v>
+        <v>2129.0</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>764</v>
@@ -8742,10 +8460,10 @@
         <v>765</v>
       </c>
       <c r="F284" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="285">
       <c r="A285" s="2" t="s">
         <v>760</v>
       </c>
@@ -8753,7 +8471,7 @@
         <v>761</v>
       </c>
       <c r="C285" s="2">
-        <v>1705</v>
+        <v>1705.0</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>750</v>
@@ -8762,10 +8480,10 @@
         <v>751</v>
       </c>
       <c r="F285" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="286">
       <c r="A286" s="2" t="s">
         <v>760</v>
       </c>
@@ -8773,7 +8491,7 @@
         <v>761</v>
       </c>
       <c r="C286" s="2">
-        <v>2763</v>
+        <v>2763.0</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>756</v>
@@ -8782,10 +8500,10 @@
         <v>757</v>
       </c>
       <c r="F286" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="287">
       <c r="A287" s="2" t="s">
         <v>760</v>
       </c>
@@ -8793,7 +8511,7 @@
         <v>761</v>
       </c>
       <c r="C287" s="2">
-        <v>1597</v>
+        <v>1597.0</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>766</v>
@@ -8802,10 +8520,10 @@
         <v>767</v>
       </c>
       <c r="F287" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="288">
       <c r="A288" s="2" t="s">
         <v>760</v>
       </c>
@@ -8813,7 +8531,7 @@
         <v>761</v>
       </c>
       <c r="C288" s="2">
-        <v>2845</v>
+        <v>2845.0</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>768</v>
@@ -8822,10 +8540,10 @@
         <v>769</v>
       </c>
       <c r="F288" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="289">
       <c r="A289" s="2" t="s">
         <v>760</v>
       </c>
@@ -8833,7 +8551,7 @@
         <v>761</v>
       </c>
       <c r="C289" s="2">
-        <v>2763</v>
+        <v>2763.0</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>756</v>
@@ -8842,10 +8560,10 @@
         <v>757</v>
       </c>
       <c r="F289" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="290">
       <c r="A290" s="2" t="s">
         <v>760</v>
       </c>
@@ -8853,7 +8571,7 @@
         <v>761</v>
       </c>
       <c r="C290" s="2">
-        <v>2845</v>
+        <v>2845.0</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>768</v>
@@ -8862,10 +8580,10 @@
         <v>769</v>
       </c>
       <c r="F290" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="291">
       <c r="A291" s="2" t="s">
         <v>770</v>
       </c>
@@ -8873,7 +8591,7 @@
         <v>771</v>
       </c>
       <c r="C291" s="2">
-        <v>1595</v>
+        <v>1595.0</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>772</v>
@@ -8882,10 +8600,10 @@
         <v>773</v>
       </c>
       <c r="F291" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="292">
       <c r="A292" s="2" t="s">
         <v>770</v>
       </c>
@@ -8893,7 +8611,7 @@
         <v>771</v>
       </c>
       <c r="C292" s="2">
-        <v>1599</v>
+        <v>1599.0</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>774</v>
@@ -8902,10 +8620,10 @@
         <v>775</v>
       </c>
       <c r="F292" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="293">
       <c r="A293" s="2" t="s">
         <v>770</v>
       </c>
@@ -8913,7 +8631,7 @@
         <v>771</v>
       </c>
       <c r="C293" s="2">
-        <v>1930</v>
+        <v>1930.0</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>254</v>
@@ -8922,10 +8640,10 @@
         <v>255</v>
       </c>
       <c r="F293" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="294">
       <c r="A294" s="2" t="s">
         <v>770</v>
       </c>
@@ -8933,7 +8651,7 @@
         <v>771</v>
       </c>
       <c r="C294" s="2">
-        <v>1597</v>
+        <v>1597.0</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>766</v>
@@ -8942,10 +8660,10 @@
         <v>767</v>
       </c>
       <c r="F294" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="295">
       <c r="A295" s="2" t="s">
         <v>770</v>
       </c>
@@ -8953,7 +8671,7 @@
         <v>771</v>
       </c>
       <c r="C295" s="2">
-        <v>1595</v>
+        <v>1595.0</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>772</v>
@@ -8962,10 +8680,10 @@
         <v>773</v>
       </c>
       <c r="F295" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="296">
       <c r="A296" s="2" t="s">
         <v>770</v>
       </c>
@@ -8973,7 +8691,7 @@
         <v>771</v>
       </c>
       <c r="C296" s="2">
-        <v>2815</v>
+        <v>2815.0</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>776</v>
@@ -8982,10 +8700,10 @@
         <v>777</v>
       </c>
       <c r="F296" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="297">
       <c r="A297" s="2" t="s">
         <v>770</v>
       </c>
@@ -8993,7 +8711,7 @@
         <v>771</v>
       </c>
       <c r="C297" s="2">
-        <v>2998</v>
+        <v>2998.0</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>778</v>
@@ -9002,10 +8720,10 @@
         <v>779</v>
       </c>
       <c r="F297" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="298">
       <c r="A298" s="2" t="s">
         <v>780</v>
       </c>
@@ -9013,7 +8731,7 @@
         <v>781</v>
       </c>
       <c r="C298" s="2">
-        <v>1601</v>
+        <v>1601.0</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>782</v>
@@ -9022,10 +8740,10 @@
         <v>783</v>
       </c>
       <c r="F298" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="299">
       <c r="A299" s="2" t="s">
         <v>780</v>
       </c>
@@ -9033,7 +8751,7 @@
         <v>781</v>
       </c>
       <c r="C299" s="2">
-        <v>1926</v>
+        <v>1926.0</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>726</v>
@@ -9042,10 +8760,10 @@
         <v>727</v>
       </c>
       <c r="F299" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="300">
       <c r="A300" s="2" t="s">
         <v>780</v>
       </c>
@@ -9053,7 +8771,7 @@
         <v>781</v>
       </c>
       <c r="C300" s="2">
-        <v>1619</v>
+        <v>1619.0</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>260</v>
@@ -9062,10 +8780,10 @@
         <v>261</v>
       </c>
       <c r="F300" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="301">
       <c r="A301" s="2" t="s">
         <v>780</v>
       </c>
@@ -9073,7 +8791,7 @@
         <v>781</v>
       </c>
       <c r="C301" s="2">
-        <v>1938</v>
+        <v>1938.0</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>784</v>
@@ -9082,10 +8800,10 @@
         <v>785</v>
       </c>
       <c r="F301" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="302">
       <c r="A302" s="2" t="s">
         <v>786</v>
       </c>
@@ -9093,7 +8811,7 @@
         <v>787</v>
       </c>
       <c r="C302" s="2">
-        <v>1597</v>
+        <v>1597.0</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>766</v>
@@ -9102,10 +8820,10 @@
         <v>767</v>
       </c>
       <c r="F302" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="303">
       <c r="A303" s="2" t="s">
         <v>786</v>
       </c>
@@ -9113,7 +8831,7 @@
         <v>787</v>
       </c>
       <c r="C303" s="2">
-        <v>1597</v>
+        <v>1597.0</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>766</v>
@@ -9122,10 +8840,10 @@
         <v>767</v>
       </c>
       <c r="F303" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="304">
       <c r="A304" s="2" t="s">
         <v>788</v>
       </c>
@@ -9133,7 +8851,7 @@
         <v>789</v>
       </c>
       <c r="C304" s="2">
-        <v>1646</v>
+        <v>1646.0</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>790</v>
@@ -9142,10 +8860,10 @@
         <v>791</v>
       </c>
       <c r="F304" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="305">
       <c r="A305" s="2" t="s">
         <v>792</v>
       </c>
@@ -9153,7 +8871,7 @@
         <v>793</v>
       </c>
       <c r="C305" s="2">
-        <v>2050</v>
+        <v>2050.0</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>794</v>
@@ -9162,10 +8880,10 @@
         <v>795</v>
       </c>
       <c r="F305" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="306">
       <c r="A306" s="2" t="s">
         <v>796</v>
       </c>
@@ -9173,7 +8891,7 @@
         <v>797</v>
       </c>
       <c r="C306" s="2">
-        <v>1816</v>
+        <v>1816.0</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>798</v>
@@ -9182,10 +8900,10 @@
         <v>799</v>
       </c>
       <c r="F306" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="307">
       <c r="A307" s="2" t="s">
         <v>800</v>
       </c>
@@ -9193,7 +8911,7 @@
         <v>801</v>
       </c>
       <c r="C307" s="2">
-        <v>1603</v>
+        <v>1603.0</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>762</v>
@@ -9202,10 +8920,10 @@
         <v>763</v>
       </c>
       <c r="F307" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="308">
       <c r="A308" s="2" t="s">
         <v>802</v>
       </c>
@@ -9213,7 +8931,7 @@
         <v>803</v>
       </c>
       <c r="C308" s="2">
-        <v>1816</v>
+        <v>1816.0</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>798</v>
@@ -9222,10 +8940,10 @@
         <v>799</v>
       </c>
       <c r="F308" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="309">
       <c r="A309" s="2" t="s">
         <v>804</v>
       </c>
@@ -9233,7 +8951,7 @@
         <v>805</v>
       </c>
       <c r="C309" s="2">
-        <v>1629</v>
+        <v>1629.0</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>806</v>
@@ -9242,10 +8960,10 @@
         <v>807</v>
       </c>
       <c r="F309" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="310">
       <c r="A310" s="2" t="s">
         <v>808</v>
       </c>
@@ -9253,7 +8971,7 @@
         <v>809</v>
       </c>
       <c r="C310" s="2">
-        <v>1938</v>
+        <v>1938.0</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>784</v>
@@ -9262,10 +8980,10 @@
         <v>785</v>
       </c>
       <c r="F310" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="311">
       <c r="A311" s="2" t="s">
         <v>810</v>
       </c>
@@ -9273,7 +8991,7 @@
         <v>811</v>
       </c>
       <c r="C311" s="2">
-        <v>2167</v>
+        <v>2167.0</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>812</v>
@@ -9282,10 +9000,10 @@
         <v>813</v>
       </c>
       <c r="F311" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="312">
       <c r="A312" s="2" t="s">
         <v>814</v>
       </c>
@@ -9293,7 +9011,7 @@
         <v>815</v>
       </c>
       <c r="C312" s="2">
-        <v>2167</v>
+        <v>2167.0</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>812</v>
@@ -9302,10 +9020,10 @@
         <v>813</v>
       </c>
       <c r="F312" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="313">
       <c r="A313" s="2" t="s">
         <v>816</v>
       </c>
@@ -9313,7 +9031,7 @@
         <v>33</v>
       </c>
       <c r="C313" s="2">
-        <v>1865</v>
+        <v>1865.0</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>266</v>
@@ -9322,10 +9040,10 @@
         <v>817</v>
       </c>
       <c r="F313" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="314">
       <c r="A314" s="2" t="s">
         <v>816</v>
       </c>
@@ -9333,7 +9051,7 @@
         <v>33</v>
       </c>
       <c r="C314" s="2">
-        <v>2143</v>
+        <v>2143.0</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>818</v>
@@ -9342,10 +9060,10 @@
         <v>819</v>
       </c>
       <c r="F314" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="315">
       <c r="A315" s="2" t="s">
         <v>820</v>
       </c>
@@ -9353,7 +9071,7 @@
         <v>37</v>
       </c>
       <c r="C315" s="2">
-        <v>1819</v>
+        <v>1819.0</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>821</v>
@@ -9362,10 +9080,10 @@
         <v>822</v>
       </c>
       <c r="F315" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="316">
       <c r="A316" s="2" t="s">
         <v>820</v>
       </c>
@@ -9373,7 +9091,7 @@
         <v>37</v>
       </c>
       <c r="C316" s="2">
-        <v>2784</v>
+        <v>2784.0</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>823</v>
@@ -9382,10 +9100,10 @@
         <v>824</v>
       </c>
       <c r="F316" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="317">
       <c r="A317" s="2" t="s">
         <v>825</v>
       </c>
@@ -9393,7 +9111,7 @@
         <v>826</v>
       </c>
       <c r="C317" s="2">
-        <v>1854</v>
+        <v>1854.0</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>284</v>
@@ -9402,10 +9120,10 @@
         <v>827</v>
       </c>
       <c r="F317" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="318">
       <c r="A318" s="2" t="s">
         <v>828</v>
       </c>
@@ -9413,7 +9131,7 @@
         <v>829</v>
       </c>
       <c r="C318" s="2">
-        <v>2143</v>
+        <v>2143.0</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>818</v>
@@ -9422,10 +9140,10 @@
         <v>819</v>
       </c>
       <c r="F318" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="319">
       <c r="A319" s="2" t="s">
         <v>830</v>
       </c>
@@ -9433,7 +9151,7 @@
         <v>49</v>
       </c>
       <c r="C319" s="2">
-        <v>2143</v>
+        <v>2143.0</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>818</v>
@@ -9442,10 +9160,10 @@
         <v>819</v>
       </c>
       <c r="F319" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="320">
       <c r="A320" s="2" t="s">
         <v>831</v>
       </c>
@@ -9453,7 +9171,7 @@
         <v>832</v>
       </c>
       <c r="C320" s="2">
-        <v>1687</v>
+        <v>1687.0</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>833</v>
@@ -9462,10 +9180,10 @@
         <v>834</v>
       </c>
       <c r="F320" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="321">
       <c r="A321" s="2" t="s">
         <v>835</v>
       </c>
@@ -9473,7 +9191,7 @@
         <v>826</v>
       </c>
       <c r="C321" s="2">
-        <v>1824</v>
+        <v>1824.0</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>836</v>
@@ -9482,10 +9200,10 @@
         <v>837</v>
       </c>
       <c r="F321" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="322">
       <c r="A322" s="2" t="s">
         <v>838</v>
       </c>
@@ -9493,7 +9211,7 @@
         <v>37</v>
       </c>
       <c r="C322" s="2">
-        <v>2800</v>
+        <v>2800.0</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>839</v>
@@ -9502,10 +9220,10 @@
         <v>840</v>
       </c>
       <c r="F322" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="323">
       <c r="A323" s="2" t="s">
         <v>841</v>
       </c>
@@ -9513,7 +9231,7 @@
         <v>842</v>
       </c>
       <c r="C323" s="2">
-        <v>2020</v>
+        <v>2020.0</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>843</v>
@@ -9522,10 +9240,10 @@
         <v>844</v>
       </c>
       <c r="F323" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="324">
       <c r="A324" s="2" t="s">
         <v>841</v>
       </c>
@@ -9533,7 +9251,7 @@
         <v>842</v>
       </c>
       <c r="C324" s="2">
-        <v>1838</v>
+        <v>1838.0</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>174</v>
@@ -9542,10 +9260,10 @@
         <v>845</v>
       </c>
       <c r="F324" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="325">
       <c r="A325" s="2" t="s">
         <v>841</v>
       </c>
@@ -9553,7 +9271,7 @@
         <v>842</v>
       </c>
       <c r="C325" s="2">
-        <v>1901</v>
+        <v>1901.0</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>846</v>
@@ -9562,10 +9280,10 @@
         <v>847</v>
       </c>
       <c r="F325" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="326">
       <c r="A326" s="2" t="s">
         <v>841</v>
       </c>
@@ -9573,7 +9291,7 @@
         <v>842</v>
       </c>
       <c r="C326" s="2">
-        <v>1707</v>
+        <v>1707.0</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>848</v>
@@ -9582,10 +9300,10 @@
         <v>849</v>
       </c>
       <c r="F326" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="327">
       <c r="A327" s="2" t="s">
         <v>841</v>
       </c>
@@ -9593,7 +9311,7 @@
         <v>842</v>
       </c>
       <c r="C327" s="2">
-        <v>1871</v>
+        <v>1871.0</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>105</v>
@@ -9602,10 +9320,10 @@
         <v>850</v>
       </c>
       <c r="F327" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="328">
       <c r="A328" s="2" t="s">
         <v>841</v>
       </c>
@@ -9613,7 +9331,7 @@
         <v>842</v>
       </c>
       <c r="C328" s="2">
-        <v>1872</v>
+        <v>1872.0</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>851</v>
@@ -9622,10 +9340,10 @@
         <v>852</v>
       </c>
       <c r="F328" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="329">
       <c r="A329" s="2" t="s">
         <v>841</v>
       </c>
@@ -9633,7 +9351,7 @@
         <v>842</v>
       </c>
       <c r="C329" s="2">
-        <v>1777</v>
+        <v>1777.0</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>853</v>
@@ -9642,10 +9360,10 @@
         <v>854</v>
       </c>
       <c r="F329" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="330">
       <c r="A330" s="2" t="s">
         <v>855</v>
       </c>
@@ -9653,7 +9371,7 @@
         <v>856</v>
       </c>
       <c r="C330" s="2">
-        <v>1861</v>
+        <v>1861.0</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>722</v>
@@ -9662,10 +9380,10 @@
         <v>857</v>
       </c>
       <c r="F330" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="331">
       <c r="A331" s="2" t="s">
         <v>855</v>
       </c>
@@ -9673,7 +9391,7 @@
         <v>856</v>
       </c>
       <c r="C331" s="2">
-        <v>2819</v>
+        <v>2819.0</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>34</v>
@@ -9682,10 +9400,10 @@
         <v>858</v>
       </c>
       <c r="F331" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="332">
       <c r="A332" s="2" t="s">
         <v>855</v>
       </c>
@@ -9693,7 +9411,7 @@
         <v>856</v>
       </c>
       <c r="C332" s="2">
-        <v>1779</v>
+        <v>1779.0</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>859</v>
@@ -9702,10 +9420,10 @@
         <v>860</v>
       </c>
       <c r="F332" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="333">
       <c r="A333" s="2" t="s">
         <v>855</v>
       </c>
@@ -9713,7 +9431,7 @@
         <v>856</v>
       </c>
       <c r="C333" s="2">
-        <v>1546</v>
+        <v>1546.0</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>390</v>
@@ -9722,10 +9440,10 @@
         <v>861</v>
       </c>
       <c r="F333" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="334">
       <c r="A334" s="2" t="s">
         <v>862</v>
       </c>
@@ -9733,7 +9451,7 @@
         <v>863</v>
       </c>
       <c r="C334" s="2">
-        <v>1902</v>
+        <v>1902.0</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>864</v>
@@ -9742,10 +9460,10 @@
         <v>865</v>
       </c>
       <c r="F334" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="335">
       <c r="A335" s="2" t="s">
         <v>862</v>
       </c>
@@ -9753,7 +9471,7 @@
         <v>863</v>
       </c>
       <c r="C335" s="2">
-        <v>1842</v>
+        <v>1842.0</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>866</v>
@@ -9762,10 +9480,10 @@
         <v>867</v>
       </c>
       <c r="F335" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="336">
       <c r="A336" s="2" t="s">
         <v>862</v>
       </c>
@@ -9773,7 +9491,7 @@
         <v>863</v>
       </c>
       <c r="C336" s="2">
-        <v>1778</v>
+        <v>1778.0</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>868</v>
@@ -9782,10 +9500,10 @@
         <v>869</v>
       </c>
       <c r="F336" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="337">
       <c r="A337" s="2" t="s">
         <v>870</v>
       </c>
@@ -9793,7 +9511,7 @@
         <v>871</v>
       </c>
       <c r="C337" s="2">
-        <v>1636</v>
+        <v>1636.0</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>872</v>
@@ -9802,10 +9520,10 @@
         <v>873</v>
       </c>
       <c r="F337" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="338">
       <c r="A338" s="2" t="s">
         <v>874</v>
       </c>
@@ -9813,7 +9531,7 @@
         <v>875</v>
       </c>
       <c r="C338" s="2">
-        <v>1800</v>
+        <v>1800.0</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>876</v>
@@ -9822,10 +9540,10 @@
         <v>877</v>
       </c>
       <c r="F338" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="339">
       <c r="A339" s="2" t="s">
         <v>874</v>
       </c>
@@ -9833,7 +9551,7 @@
         <v>875</v>
       </c>
       <c r="C339" s="2">
-        <v>1807</v>
+        <v>1807.0</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>878</v>
@@ -9842,10 +9560,10 @@
         <v>879</v>
       </c>
       <c r="F339" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="340">
       <c r="A340" s="2" t="s">
         <v>874</v>
       </c>
@@ -9853,7 +9571,7 @@
         <v>875</v>
       </c>
       <c r="C340" s="2">
-        <v>1857</v>
+        <v>1857.0</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>880</v>
@@ -9862,10 +9580,10 @@
         <v>881</v>
       </c>
       <c r="F340" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="341">
       <c r="A341" s="2" t="s">
         <v>874</v>
       </c>
@@ -9873,7 +9591,7 @@
         <v>875</v>
       </c>
       <c r="C341" s="2">
-        <v>1840</v>
+        <v>1840.0</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>882</v>
@@ -9882,10 +9600,10 @@
         <v>883</v>
       </c>
       <c r="F341" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="342">
       <c r="A342" s="2" t="s">
         <v>874</v>
       </c>
@@ -9893,7 +9611,7 @@
         <v>875</v>
       </c>
       <c r="C342" s="2">
-        <v>1609</v>
+        <v>1609.0</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>109</v>
@@ -9902,10 +9620,10 @@
         <v>884</v>
       </c>
       <c r="F342" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="343">
       <c r="A343" s="2" t="s">
         <v>874</v>
       </c>
@@ -9913,7 +9631,7 @@
         <v>875</v>
       </c>
       <c r="C343" s="2">
-        <v>1798</v>
+        <v>1798.0</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>885</v>
@@ -9922,10 +9640,10 @@
         <v>886</v>
       </c>
       <c r="F343" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="344">
       <c r="A344" s="2" t="s">
         <v>874</v>
       </c>
@@ -9933,7 +9651,7 @@
         <v>875</v>
       </c>
       <c r="C344" s="2">
-        <v>1857</v>
+        <v>1857.0</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>880</v>
@@ -9942,10 +9660,10 @@
         <v>881</v>
       </c>
       <c r="F344" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="345">
       <c r="A345" s="2" t="s">
         <v>887</v>
       </c>
@@ -9953,7 +9671,7 @@
         <v>875</v>
       </c>
       <c r="C345" s="2">
-        <v>1800</v>
+        <v>1800.0</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>876</v>
@@ -9962,10 +9680,10 @@
         <v>877</v>
       </c>
       <c r="F345" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="346">
       <c r="A346" s="2" t="s">
         <v>888</v>
       </c>
@@ -9973,7 +9691,7 @@
         <v>889</v>
       </c>
       <c r="C346" s="2">
-        <v>2809</v>
+        <v>2809.0</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>890</v>
@@ -9982,10 +9700,10 @@
         <v>891</v>
       </c>
       <c r="F346" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="347">
       <c r="A347" s="2" t="s">
         <v>892</v>
       </c>
@@ -9993,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="C347" s="2">
-        <v>1608</v>
+        <v>1608.0</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>893</v>
@@ -10002,11 +9720,11 @@
         <v>894</v>
       </c>
       <c r="F347" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F347"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="$A$1:$F$347"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>